--- a/data/fleas_complex_data.xlsx
+++ b/data/fleas_complex_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01448954-0A80-C947-BE65-BA5A57910AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EFF1F-E172-CC49-8E01-D2CECE0702CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" activeTab="2" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="28">
   <si>
     <t>animal</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>eff_t3</t>
+  </si>
+  <si>
+    <t>intercept</t>
   </si>
 </sst>
 </file>
@@ -495,18 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDDEF0-8AF1-4F45-97DB-B027737E21A4}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,37 +517,40 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,41 +558,40 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <f ca="1">C2+D2+E2+NORMINV(RAND(),0,4)</f>
-        <v>15.981597936112919</v>
+        <v>7.5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
       </c>
       <c r="J2" s="1">
-        <f ca="1">C2+D2+F2+NORMINV(RAND(),0,4)</f>
-        <v>18.254926367568224</v>
+        <v>25.375485055828662</v>
       </c>
       <c r="K2" s="1">
-        <f ca="1">C2+D2+G2+NORMINV(RAND(),0,4)</f>
-        <v>15.497817181883258</v>
+        <v>23.650666534031664</v>
       </c>
       <c r="L2" s="1">
-        <f ca="1">C2+D2+H2+NORMINV(RAND(),0,4)</f>
-        <v>13.943559876637771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25.689304055716036</v>
+      </c>
+      <c r="M2" s="1">
+        <v>26.699257691231757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -594,41 +599,40 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I25" ca="1" si="0">C3+D3+E3+NORMINV(RAND(),0,4)</f>
-        <v>20.909876733497775</v>
+        <v>7.5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J25" ca="1" si="1">C3+D3+F3+NORMINV(RAND(),0,4)</f>
-        <v>17.432803749003043</v>
+        <v>30.03007249597518</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K25" ca="1" si="2">C3+D3+G3+NORMINV(RAND(),0,4)</f>
-        <v>20.459977456220432</v>
+        <v>18.848806240336696</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L25" ca="1" si="3">C3+D3+H3+NORMINV(RAND(),0,4)</f>
-        <v>19.179927071127828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14.128677249808472</v>
+      </c>
+      <c r="M3" s="1">
+        <v>20.092166072325806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -636,41 +640,40 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.768473638615227</v>
+        <v>7.5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.633229557501116</v>
+        <v>25.085509441616772</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.0808703245399869</v>
+        <v>18.545797147009036</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.231291863081983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>16.328221978658597</v>
+      </c>
+      <c r="M4" s="1">
+        <v>18.866062542244155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -678,41 +681,40 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.712737699515522</v>
+        <v>7.5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.472199908932474</v>
+        <v>31.021207997899527</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.3916396277841629</v>
+        <v>25.257571110722814</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>21.285185156056691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20.024202205558154</v>
+      </c>
+      <c r="M5" s="1">
+        <v>20.929451549896264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -720,41 +722,40 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.740853105966053</v>
+        <v>7.5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.2377370363888964</v>
+        <v>20.227553903132197</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.8585952039462281</v>
+        <v>11.751569766023218</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.3388433351143334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15.079576801892294</v>
+      </c>
+      <c r="M6" s="1">
+        <v>13.109499254454432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -762,41 +763,40 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.576708966062974</v>
+        <v>7.5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.047254952814487</v>
+        <v>20.581555232351057</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.293351181307985</v>
+        <v>8.249845594711525</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.781382710532835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12.398852102618635</v>
+      </c>
+      <c r="M7" s="1">
+        <v>22.43122955376554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -804,41 +804,40 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>14.351619886999554</v>
+        <v>7.5</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.517795675904772</v>
+        <v>21.289257949146062</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.839695187991465</v>
+        <v>15.490418259100156</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>15.020649677842858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14.601483067697469</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4.6735216383982774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -846,41 +845,40 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>17.439966481018345</v>
+        <v>7.5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.226113901518918</v>
+        <v>25.229147078992263</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.004309824800131</v>
+        <v>17.103405267613017</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.044270494916773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.9762295864205992</v>
+      </c>
+      <c r="M9" s="1">
+        <v>9.5392344556280442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -888,41 +886,40 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.42329521694851</v>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.969974933347533</v>
+        <v>31.226601139530693</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.475806824666151</v>
+        <v>22.27631391737728</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>17.931516928163454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17.321622229577862</v>
+      </c>
+      <c r="M10" s="1">
+        <v>13.040945686438112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -930,41 +927,40 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.704970919825781</v>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.339716696254918</v>
+        <v>41.907682488049304</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.475318635754096</v>
+        <v>21.668178837863248</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.0003678562592953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>26.615167896960521</v>
+      </c>
+      <c r="M11" s="1">
+        <v>21.129783540358027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -972,41 +968,40 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.294587332652807</v>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.911688096134762</v>
+        <v>35.323286707757312</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>17.545184771818519</v>
+        <v>23.521183625347089</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.1990771044216952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10.911198879129717</v>
+      </c>
+      <c r="M12" s="1">
+        <v>15.512597164641988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1014,41 +1009,40 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.909955951353826</v>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.4446254843613</v>
+        <v>31.578219034069662</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>23.190717534452531</v>
+        <v>22.016432914693159</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>20.082667450653204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15.062041253277323</v>
+      </c>
+      <c r="M13" s="1">
+        <v>13.920737355846171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1056,41 +1050,40 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.840962131420348</v>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.349167436302636</v>
+        <v>36.357238889611061</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.866910493760791</v>
+        <v>29.981779562552255</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.277553071953456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29.592674463861194</v>
+      </c>
+      <c r="M14" s="1">
+        <v>18.641156611845528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1098,41 +1091,40 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.489488587881279</v>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.560177998930104</v>
+        <v>43.866237967615994</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>18.054456356510531</v>
+        <v>29.512021578158453</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>18.626750312068868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30.809709053475068</v>
+      </c>
+      <c r="M15" s="1">
+        <v>24.392462518866918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1140,41 +1132,40 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.902426694714205</v>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.462023789192479</v>
+        <v>40.629413071901517</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.725472724377862</v>
+        <v>28.180239071732146</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>19.616068025397919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25.76534515337584</v>
+      </c>
+      <c r="M16" s="1">
+        <v>14.443072117557421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1182,41 +1173,40 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.59821047845216</v>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.435610677187668</v>
+        <v>48.266239799097711</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>16.574585431962646</v>
+        <v>33.650986051057004</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>20.364423202403685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30.651060103944459</v>
+      </c>
+      <c r="M17" s="1">
+        <v>17.430445783837051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1224,41 +1214,40 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.347980437093675</v>
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.08565420658865</v>
+        <v>46.668824195521942</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.8651635533623638</v>
+        <v>44.177297041298665</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>3.3125936856097749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>33.906671362696649</v>
+      </c>
+      <c r="M18" s="1">
+        <v>28.581991878935895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1266,41 +1255,40 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.252452254921025</v>
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.289259750273224</v>
+        <v>47.683360640135199</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>7.6969514363510934</v>
+        <v>44.491870244886378</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1404090931453954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28.698578577225071</v>
+      </c>
+      <c r="M19" s="1">
+        <v>23.251287695779926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1308,41 +1296,40 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.831799619741219</v>
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.89047920319916</v>
+        <v>40.300206147790618</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.6833126463839925</v>
+        <v>38.852423856422234</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.0072205877605676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>34.330645738730702</v>
+      </c>
+      <c r="M20" s="1">
+        <v>21.41275324012669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1350,41 +1337,40 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.874873820408453</v>
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.476639505440893</v>
+        <v>50.377748007036168</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.090863438280383</v>
+        <v>34.184792637940134</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.4597594084369643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>33.061246265393351</v>
+      </c>
+      <c r="M21" s="1">
+        <v>26.210467519477344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1392,41 +1378,40 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.693814466561264</v>
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>18.471638119353475</v>
+        <v>38.792168401561987</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0030266051299357</v>
+        <v>42.397076326926275</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.6922100361450774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>33.77808236506371</v>
+      </c>
+      <c r="M22" s="1">
+        <v>19.787384125485815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1434,41 +1419,40 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.2684299780278</v>
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.861933587555356</v>
+        <v>46.279936178900215</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.178686209243876</v>
+        <v>31.849054790039304</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.022780572176897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29.870015593212074</v>
+      </c>
+      <c r="M23" s="1">
+        <v>21.358104495209627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1476,41 +1460,40 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>18.324991005933683</v>
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.832812132766028</v>
+        <v>41.426627448912576</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9326945172135321</v>
+        <v>39.676862807341791</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.8505413597938323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27.65703784852743</v>
+      </c>
+      <c r="M24" s="1">
+        <v>27.435926237770175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1518,42 +1501,41 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.413477372705584</v>
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.896977731958536</v>
+        <v>36.184031629129493</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.1148420529714258</v>
+        <v>36.480548956965968</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>13.822791924008488</v>
+        <v>30.102795046605763</v>
+      </c>
+      <c r="M25" s="1">
+        <v>31.283720263870531</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M26">
     <sortCondition ref="A2:A26"/>
     <sortCondition ref="B2:B26"/>
   </sortState>
@@ -1563,15 +1545,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AABB94-2F91-874E-BD21-A7A146A6F8BD}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1585,22 +1567,25 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1614,24 +1599,25 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <f ca="1">NORMINV(RAND(),3,1)</f>
-        <v>0.98919728723261002</v>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2.5</v>
       </c>
       <c r="I2" s="1">
-        <f ca="1">E2 + F2 + G2 + H2 + NORMINV(RAND(),0,2)</f>
-        <v>16.41283969377249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3385987414842422</v>
+      </c>
+      <c r="J2" s="1">
+        <v>21.423115976282624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1645,24 +1631,25 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H49" ca="1" si="0">NORMINV(RAND(),3,1)</f>
-        <v>2.999007914313585</v>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>2.5</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I66" ca="1" si="1">E3 + F3 + G3 + H3 + NORMINV(RAND(),0,2)</f>
-        <v>15.460858321554108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.4596893461911575</v>
+      </c>
+      <c r="J3" s="1">
+        <v>23.417413816199243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1676,24 +1663,25 @@
         <v>17</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.7533899987715422</v>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2.5</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.965455923124921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2444400375155997</v>
+      </c>
+      <c r="J4" s="1">
+        <v>22.301231694459556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1707,24 +1695,25 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3949491438563451</v>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>2.5</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.080657565310737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.2426158583086355</v>
+      </c>
+      <c r="J5" s="1">
+        <v>28.679750767944032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1738,24 +1727,25 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.454821714616247</v>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2.5</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.230561881927326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.18592360440131728</v>
+      </c>
+      <c r="J6" s="1">
+        <v>23.933205181235746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1769,24 +1759,25 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6344435692772867</v>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2.5</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.966169561786138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.2260326872754197</v>
+      </c>
+      <c r="J7" s="1">
+        <v>19.491898911643123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1800,24 +1791,25 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7979506328719856</v>
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.721387542256892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.4970956949813021</v>
+      </c>
+      <c r="J8" s="1">
+        <v>24.387248028330028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1831,24 +1823,25 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.9006829452102725</v>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2.5</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.063970991483142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.7233190393042008</v>
+      </c>
+      <c r="J9" s="1">
+        <v>28.279164431903482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1862,24 +1855,25 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2914398466488288</v>
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.304195364679446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5498109810775667</v>
+      </c>
+      <c r="J10" s="1">
+        <v>26.57198461371808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1893,24 +1887,25 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7991702270847454</v>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.205980133442143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5814057291140058</v>
+      </c>
+      <c r="J11" s="1">
+        <v>26.504283499253997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1924,24 +1919,25 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3760114228993978</v>
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.159577814335364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.3451344801223568</v>
+      </c>
+      <c r="J12" s="1">
+        <v>27.198402772266473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1955,24 +1951,25 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6534864874903943</v>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.160372637170255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.6759203910649179</v>
+      </c>
+      <c r="J13" s="1">
+        <v>33.268981614321667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1986,24 +1983,25 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0978577977329245</v>
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.022063750435315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.051673475606516</v>
+      </c>
+      <c r="J14" s="1">
+        <v>29.883297863564049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2017,24 +2015,25 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.7851610686509849</v>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.916029944493527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.6519975850728521</v>
+      </c>
+      <c r="J15" s="1">
+        <v>25.815836915402361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2048,24 +2047,25 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1311430891767826</v>
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.888820538156232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3918181985332194</v>
+      </c>
+      <c r="J16" s="1">
+        <v>27.792602967927024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2079,24 +2079,25 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.0074799556062057</v>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.611101543897076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.5775059376251495</v>
+      </c>
+      <c r="J17" s="1">
+        <v>30.575687387022011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2110,24 +2111,25 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <f ca="1">NORMINV(RAND(),1,2)</f>
-        <v>2.0425529620263054</v>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.200307851459424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.5056032105433883</v>
+      </c>
+      <c r="J18" s="1">
+        <v>22.207273643334851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2141,24 +2143,25 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19:H33" ca="1" si="2">NORMINV(RAND(),1,2)</f>
-        <v>-2.0520619304247112</v>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3627805109288618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.50456322179829405</v>
+      </c>
+      <c r="J19" s="1">
+        <v>23.170671305774597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2172,24 +2175,25 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6443430566089139</v>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.285498987083571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5470181542439185</v>
+      </c>
+      <c r="J20" s="1">
+        <v>25.891246215954069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2203,24 +2207,25 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1.0132327293096961</v>
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.920254957030494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.1855524690917054</v>
+      </c>
+      <c r="J21" s="1">
+        <v>29.907204347087323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2234,24 +2239,25 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2311738115437776</v>
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6837034441343643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.8322735712190998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>25.882477635591865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2265,24 +2271,25 @@
         <v>18</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.371005688766159</v>
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.280230955086779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.3507672635858627</v>
+      </c>
+      <c r="J23" s="1">
+        <v>30.249959895761833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2296,24 +2303,25 @@
         <v>18</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.49879434496666541</v>
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9743209462693025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.3497449068966842</v>
+      </c>
+      <c r="J24" s="1">
+        <v>20.075783336350778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2327,24 +2335,25 @@
         <v>18</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.58403719014963318</v>
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.3531854579940266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5820476155122241</v>
+      </c>
+      <c r="J25" s="1">
+        <v>25.022621704332913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2358,24 +2367,25 @@
         <v>18</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.3438099733035584</v>
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>2.5</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.568803920166529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.1917271920993806</v>
+      </c>
+      <c r="J26" s="1">
+        <v>21.747264584792589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2389,24 +2399,25 @@
         <v>18</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7137576630359646</v>
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>2.5</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.060396877723083</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.9880531839104894</v>
+      </c>
+      <c r="J27" s="1">
+        <v>18.225826100952759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2420,24 +2431,25 @@
         <v>18</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.9402053992027759</v>
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>2.5</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.340193062463346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.28951874825150936</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20.885517208005425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2451,24 +2463,25 @@
         <v>18</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.7297870386991603</v>
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>2.5</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.460715178032675</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.5140873230326477</v>
+      </c>
+      <c r="J29" s="1">
+        <v>20.084848029532228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2482,24 +2495,25 @@
         <v>18</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.7845127532267049</v>
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>2.5</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.2333046892649051</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.8326526951961579</v>
+      </c>
+      <c r="J30" s="1">
+        <v>17.281107516722841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2513,24 +2527,25 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.3623752837450773</v>
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>2.5</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.61974407114805</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.6013613879200026E-3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>24.408275179700425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2544,24 +2559,25 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-2.0714347423935413</v>
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>2.5</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.8462479007380441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.5231275464091527</v>
+      </c>
+      <c r="J32" s="1">
+        <v>18.695471703128568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2575,24 +2591,25 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.88422664810236062</v>
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>2.5</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.864085124267932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.0558372946998049</v>
+      </c>
+      <c r="J33" s="1">
+        <v>23.360402619985354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2606,24 +2623,25 @@
         <v>17</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" s="1">
-        <f ca="1">NORMINV(RAND(),3,1)</f>
-        <v>3.13738958839226</v>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2.5</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.1741500694845275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.380556133735233</v>
+      </c>
+      <c r="J34" s="1">
+        <v>24.836626599357729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2637,24 +2655,25 @@
         <v>17</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3022814642043912</v>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2.5</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.7645009265610554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.5562886027947354</v>
+      </c>
+      <c r="J35" s="1">
+        <v>23.373387683201354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2668,24 +2687,25 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.0183847999629259</v>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2.5</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.189590773904627</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.2644694860122936</v>
+      </c>
+      <c r="J36" s="1">
+        <v>22.842126594766835</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2699,24 +2719,25 @@
         <v>17</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9649274532282028</v>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2.5</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.70595043593476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.3645040707284974</v>
+      </c>
+      <c r="J37" s="1">
+        <v>23.858478690803452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2730,24 +2751,25 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5213397868667782</v>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2.5</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6256181882828855</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.41740861422310438</v>
+      </c>
+      <c r="J38" s="1">
+        <v>18.753129479550715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2761,24 +2783,25 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.5653043411484626</v>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2.5</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.650095098084037</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.7245190354068851</v>
+      </c>
+      <c r="J39" s="1">
+        <v>18.521821245372447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -2792,24 +2815,25 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2734243491177439</v>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2.5</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.21027528237164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.1209016887083934</v>
+      </c>
+      <c r="J40" s="1">
+        <v>26.30438305832363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2823,24 +2847,25 @@
         <v>17</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.360808106258224</v>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2.5</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4394993287198794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.0033364485127301</v>
+      </c>
+      <c r="J41" s="1">
+        <v>26.165806386855817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2854,24 +2879,25 @@
         <v>17</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3776585268448884</v>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.488455574649532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.2957447068549204</v>
+      </c>
+      <c r="J42" s="1">
+        <v>21.331149895601875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2885,24 +2911,25 @@
         <v>17</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2833377982023215</v>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.37903925545749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.0409142359201251</v>
+      </c>
+      <c r="J43" s="1">
+        <v>23.619185436810351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2916,24 +2943,25 @@
         <v>17</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.0729703720056412</v>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.030038002563142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.1179606394610255</v>
+      </c>
+      <c r="J44" s="1">
+        <v>23.975822660790993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2947,24 +2975,25 @@
         <v>17</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6691003791236687</v>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.407069257607841</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.1493862933605785</v>
+      </c>
+      <c r="J45" s="1">
+        <v>21.527697328744299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2978,24 +3007,25 @@
         <v>17</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2495782255767742</v>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.0164750787746186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.1999707028975735</v>
+      </c>
+      <c r="J46" s="1">
+        <v>23.347119106643461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3009,24 +3039,25 @@
         <v>17</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>3</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.2672549900466903</v>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.938415396890647</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.6428517925912978</v>
+      </c>
+      <c r="J47" s="1">
+        <v>29.828841981316167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3040,24 +3071,25 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1875303532208084</v>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.432406456810705</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.5894744739014532</v>
+      </c>
+      <c r="J48" s="1">
+        <v>27.54572425809976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -3071,24 +3103,25 @@
         <v>17</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8728221165513959</v>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.481777981003603</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.1924655928015273</v>
+      </c>
+      <c r="J49" s="1">
+        <v>26.989018887551943</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -3102,24 +3135,25 @@
         <v>18</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="1">
-        <f ca="1">NORMINV(RAND(),1,2)</f>
-        <v>-0.61014260681056376</v>
+      <c r="H50">
+        <v>1</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.3194252827960611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.54843870948625173</v>
+      </c>
+      <c r="J50" s="1">
+        <v>17.462987315901472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -3133,24 +3167,25 @@
         <v>18</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="1">
-        <f t="shared" ref="H51:H66" ca="1" si="3">NORMINV(RAND(),1,2)</f>
-        <v>4.0175235087566472</v>
+      <c r="H51">
+        <v>1</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.480706149579836</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.2969231970650439</v>
+      </c>
+      <c r="J51" s="1">
+        <v>13.488988766008259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -3164,24 +3199,25 @@
         <v>18</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.684401800297219</v>
+      <c r="H52">
+        <v>1</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.2548912201311602</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.8214032716145341</v>
+      </c>
+      <c r="J52" s="1">
+        <v>23.202382640314003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -3195,24 +3231,25 @@
         <v>18</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-1.7060101150918374</v>
+      <c r="H53">
+        <v>1</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.5862110068212925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.154455471774444</v>
+      </c>
+      <c r="J53" s="1">
+        <v>13.576955417247861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -3226,24 +3263,25 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18830488234249232</v>
+      <c r="H54">
+        <v>1</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.8707376690434199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.5097321764400835</v>
+      </c>
+      <c r="J54" s="1">
+        <v>23.779816922451605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -3257,24 +3295,25 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.85856276818879507</v>
+      <c r="H55">
+        <v>1</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.7065206527123635</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.27609685743802448</v>
+      </c>
+      <c r="J55" s="1">
+        <v>14.52143746701158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -3288,24 +3327,25 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-1.9607171046404841</v>
+      <c r="H56">
+        <v>1</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.8548183127897211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.486385556547269</v>
+      </c>
+      <c r="J56" s="1">
+        <v>15.069141718676889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -3319,24 +3359,25 @@
         <v>18</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.5332287963510201</v>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.71739268362386</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-5.1288536999757826</v>
+      </c>
+      <c r="J57" s="1">
+        <v>8.7334356575202552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -3350,24 +3391,25 @@
         <v>18</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-3.2408543996382448</v>
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2.5</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.4925275954975765</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.3121969972426344</v>
+      </c>
+      <c r="J58" s="1">
+        <v>21.596161683921011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -3381,24 +3423,25 @@
         <v>18</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.13463822102753986</v>
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2.5</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9361257064377604</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.6775220974345535</v>
+      </c>
+      <c r="J59" s="1">
+        <v>11.494096142366871</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -3412,24 +3455,25 @@
         <v>18</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.37697155153160045</v>
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2.5</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.0327810478650825</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.83598865674068</v>
+      </c>
+      <c r="J60" s="1">
+        <v>15.50287342876692</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -3443,24 +3487,25 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.0787983443981988</v>
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2.5</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>14.156746789904842</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.8669440601631253</v>
+      </c>
+      <c r="J61" s="1">
+        <v>23.238821253572723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -3474,24 +3519,25 @@
         <v>18</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.77675873111144522</v>
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2.5</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10.44729254602716</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.0926978971866257</v>
+      </c>
+      <c r="J62" s="1">
+        <v>15.205749817433601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -3505,24 +3551,25 @@
         <v>18</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.7117177297260722</v>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>2.5</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.003203667446627</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.7796103003247525</v>
+      </c>
+      <c r="J63" s="1">
+        <v>17.49403238182709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -3536,24 +3583,25 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13160319130395459</v>
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2.5</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9615342140388599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0114150828970954</v>
+      </c>
+      <c r="J64" s="1">
+        <v>19.790537326078098</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -3567,24 +3615,25 @@
         <v>18</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.36094838220095271</v>
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>2.5</v>
       </c>
       <c r="I65" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.2420712811387844</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5013850571654443</v>
+      </c>
+      <c r="J65" s="1">
+        <v>17.242054783214847</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -3598,24 +3647,25 @@
         <v>17</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66" s="1">
-        <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-0.71395526553750155</v>
+        <v>2.5</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.754544258863191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.6443534848251526</v>
+      </c>
+      <c r="J66" s="1">
+        <v>22.801046508859457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3629,24 +3679,25 @@
         <v>17</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G67">
-        <v>3</v>
-      </c>
-      <c r="H67" s="1">
-        <f t="shared" ref="H67:H82" ca="1" si="4">NORMINV(RAND(),0,2)</f>
-        <v>6.1461064410951112</v>
+        <v>2.5</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" ref="I67:I130" ca="1" si="5">E67 + F67 + G67 + H67 + NORMINV(RAND(),0,2)</f>
-        <v>20.669616255144188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.5245189807580943</v>
+      </c>
+      <c r="J67" s="1">
+        <v>21.426393629646242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3660,24 +3711,25 @@
         <v>17</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G68">
-        <v>3</v>
-      </c>
-      <c r="H68" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.8617806350739636</v>
+        <v>2.5</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.353628964490845</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.2914500267739926</v>
+      </c>
+      <c r="J68" s="1">
+        <v>31.738740118947657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3691,24 +3743,25 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G69">
-        <v>3</v>
-      </c>
-      <c r="H69" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.4132543033988996</v>
+        <v>2.5</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.660795231319657</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.6628916947581289</v>
+      </c>
+      <c r="J69" s="1">
+        <v>30.420887825141801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -3722,24 +3775,25 @@
         <v>17</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="H70" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.39876788201643265</v>
+        <v>2.5</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.013785800511124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.1904244355434401</v>
+      </c>
+      <c r="J70" s="1">
+        <v>27.805157698298434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3753,24 +3807,25 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G71">
-        <v>3</v>
-      </c>
-      <c r="H71" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.27451019059316</v>
+        <v>2.5</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.741208557250882</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.857088063182603</v>
+      </c>
+      <c r="J71" s="1">
+        <v>30.579693993974935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3784,24 +3839,25 @@
         <v>17</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G72">
-        <v>3</v>
-      </c>
-      <c r="H72" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.0682181427990871</v>
+        <v>2.5</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6291200808808233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.5002440420838388</v>
+      </c>
+      <c r="J72" s="1">
+        <v>33.111870652417252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -3815,24 +3871,25 @@
         <v>17</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>3</v>
-      </c>
-      <c r="H73" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.24102087059789623</v>
+        <v>2.5</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
       </c>
       <c r="I73" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>13.702664165059373</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-8.5655421048314295</v>
+      </c>
+      <c r="J73" s="1">
+        <v>19.103429401845489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -3846,24 +3903,25 @@
         <v>17</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G74">
-        <v>5</v>
-      </c>
-      <c r="H74" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.4237305291745875E-2</v>
+        <v>2.5</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.039679060854951</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-4.8404247391531996</v>
+      </c>
+      <c r="J74" s="1">
+        <v>29.31086543479141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3877,24 +3935,25 @@
         <v>17</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>5</v>
-      </c>
-      <c r="H75" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.8031909236691519</v>
+        <v>2.5</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.423562642669022</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-5.4536556799315647</v>
+      </c>
+      <c r="J75" s="1">
+        <v>25.031882180899718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3908,24 +3967,25 @@
         <v>17</v>
       </c>
       <c r="E76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G76">
-        <v>5</v>
-      </c>
-      <c r="H76" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.83849789745002057</v>
+        <v>2.5</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.239007902244293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.8281588476901289</v>
+      </c>
+      <c r="J76" s="1">
+        <v>35.762361764671269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -3939,24 +3999,25 @@
         <v>17</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G77">
-        <v>5</v>
-      </c>
-      <c r="H77" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.9310924739467661</v>
+        <v>2.5</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
       </c>
       <c r="I77" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>20.741288567347841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-5.0434582063866538</v>
+      </c>
+      <c r="J77" s="1">
+        <v>26.316103850018877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -3970,24 +4031,25 @@
         <v>17</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G78">
-        <v>5</v>
-      </c>
-      <c r="H78" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.683896695426917</v>
+        <v>2.5</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.811462379958108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.2109478828705664</v>
+      </c>
+      <c r="J78" s="1">
+        <v>32.736213617143655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -4001,24 +4063,25 @@
         <v>17</v>
       </c>
       <c r="E79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G79">
-        <v>5</v>
-      </c>
-      <c r="H79" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.8656374375131046</v>
+        <v>2.5</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>11.10048555776485</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.34372239771390212</v>
+      </c>
+      <c r="J79" s="1">
+        <v>33.948191631852765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -4032,24 +4095,25 @@
         <v>17</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G80">
-        <v>5</v>
-      </c>
-      <c r="H80" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.1955362045769564</v>
+        <v>2.5</v>
+      </c>
+      <c r="H80">
+        <v>10</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.959463792047702</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.2157017227310618</v>
+      </c>
+      <c r="J80" s="1">
+        <v>33.712663380254369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -4063,24 +4127,25 @@
         <v>17</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G81">
-        <v>5</v>
-      </c>
-      <c r="H81" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.13384928073710589</v>
+        <v>2.5</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.181765626148394</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.2307093046463757</v>
+      </c>
+      <c r="J81" s="1">
+        <v>40.397248058095876</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -4094,24 +4159,25 @@
         <v>18</v>
       </c>
       <c r="E82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="H82" s="1">
-        <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>0.15702914455404057</v>
+        <v>2.5</v>
+      </c>
+      <c r="H82">
+        <v>2.5</v>
       </c>
       <c r="I82" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.18364849401911</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.8193121582299583</v>
+      </c>
+      <c r="J82" s="1">
+        <v>23.501198707225054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -4125,24 +4191,25 @@
         <v>18</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83" s="1">
-        <f t="shared" ref="H83:H97" ca="1" si="6">NORMINV(RAND(),0,3)</f>
-        <v>-2.6731093392407028</v>
+        <v>2.5</v>
+      </c>
+      <c r="H83">
+        <v>2.5</v>
       </c>
       <c r="I83" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.6781455525239704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.6740640969226606</v>
+      </c>
+      <c r="J83" s="1">
+        <v>23.899531410204951</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -4156,24 +4223,25 @@
         <v>18</v>
       </c>
       <c r="E84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G84">
-        <v>2</v>
-      </c>
-      <c r="H84" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-2.4077708384901584</v>
+        <v>2.5</v>
+      </c>
+      <c r="H84">
+        <v>2.5</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>11.014158776437593</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.6437555776218162</v>
+      </c>
+      <c r="J84" s="1">
+        <v>26.976029353216624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -4187,24 +4255,25 @@
         <v>18</v>
       </c>
       <c r="E85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G85">
-        <v>2</v>
-      </c>
-      <c r="H85" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.80303491019578965</v>
+        <v>2.5</v>
+      </c>
+      <c r="H85">
+        <v>2.5</v>
       </c>
       <c r="I85" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.659513434099773</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.4965484016611836</v>
+      </c>
+      <c r="J85" s="1">
+        <v>30.26683233025145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -4218,24 +4287,25 @@
         <v>18</v>
       </c>
       <c r="E86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G86">
-        <v>2</v>
-      </c>
-      <c r="H86" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.67614388857267138</v>
+        <v>2.5</v>
+      </c>
+      <c r="H86">
+        <v>2.5</v>
       </c>
       <c r="I86" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.905343437408069</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.8584755810749969</v>
+      </c>
+      <c r="J86" s="1">
+        <v>22.796041314720568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -4249,24 +4319,25 @@
         <v>18</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.6148968722043491</v>
+        <v>2.5</v>
+      </c>
+      <c r="H87">
+        <v>2.5</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6965729092284239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.6764649466802024</v>
+      </c>
+      <c r="J87" s="1">
+        <v>22.89376689224218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -4280,24 +4351,25 @@
         <v>18</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.7947517454340058</v>
+        <v>2.5</v>
+      </c>
+      <c r="H88">
+        <v>2.5</v>
       </c>
       <c r="I88" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>11.882068171412293</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.6635562290763186</v>
+      </c>
+      <c r="J88" s="1">
+        <v>21.829532598791776</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -4311,24 +4383,25 @@
         <v>18</v>
       </c>
       <c r="E89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G89">
-        <v>2</v>
-      </c>
-      <c r="H89" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.8425931392073243</v>
+        <v>2.5</v>
+      </c>
+      <c r="H89">
+        <v>2.5</v>
       </c>
       <c r="I89" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.337069617174732</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.2597784434051831</v>
+      </c>
+      <c r="J89" s="1">
+        <v>23.722132732379187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4342,24 +4415,25 @@
         <v>18</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1752770406257782</v>
+        <v>2.5</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
       </c>
       <c r="I90" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.488821453724041</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.0065198668889552</v>
+      </c>
+      <c r="J90" s="1">
+        <v>17.676397293601511</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4373,24 +4447,25 @@
         <v>18</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-3.1063317229895882</v>
+        <v>2.5</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>5.8555679460576551</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.0603320133297554</v>
+      </c>
+      <c r="J91" s="1">
+        <v>22.719711102329885</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -4404,24 +4479,25 @@
         <v>18</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.2672372241244179</v>
+        <v>2.5</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.251762292037995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.6224484977115923</v>
+      </c>
+      <c r="J92" s="1">
+        <v>26.249940468987457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -4435,24 +4511,25 @@
         <v>18</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-1.4293901241547526</v>
+        <v>2.5</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
       </c>
       <c r="I93" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.7708297142852834</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.52010911390506764</v>
+      </c>
+      <c r="J93" s="1">
+        <v>23.929041814384568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -4466,24 +4543,25 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.9046513511813599</v>
+        <v>2.5</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
       </c>
       <c r="I94" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.9650251484373449</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0235428409096272</v>
+      </c>
+      <c r="J94" s="1">
+        <v>21.304490406750439</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -4497,24 +4575,25 @@
         <v>18</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>-0.13403976809066165</v>
+        <v>2.5</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.8682606120063117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3107609235477347</v>
+      </c>
+      <c r="J95" s="1">
+        <v>25.185919459416251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -4528,24 +4607,25 @@
         <v>18</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.9107358586291072</v>
+        <v>2.5</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
       </c>
       <c r="I96" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.033642957344259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.3847427785100761</v>
+      </c>
+      <c r="J96" s="1">
+        <v>23.950355414794579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -4559,24 +4639,25 @@
         <v>18</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>3.1415445209736337</v>
+        <v>2.5</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
       </c>
       <c r="I97" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.642796978420703</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.0477924890148804</v>
+      </c>
+      <c r="J97" s="1">
+        <v>24.566848786037259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -4590,24 +4671,25 @@
         <v>17</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>3</v>
-      </c>
-      <c r="H98" s="1">
-        <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>0.67173706430455948</v>
+        <v>7.5</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
       </c>
       <c r="I98" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.530262403326111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-4.3679638976821993</v>
+      </c>
+      <c r="J98" s="1">
+        <v>26.32551129813687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -4621,24 +4703,25 @@
         <v>17</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G99">
-        <v>3</v>
-      </c>
-      <c r="H99" s="1">
-        <f t="shared" ref="H99:H114" ca="1" si="7">NORMINV(RAND(),0,2)</f>
-        <v>9.2823927923664548E-2</v>
+        <v>7.5</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
       </c>
       <c r="I99" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.759720340298252</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.1672860191594285</v>
+      </c>
+      <c r="J99" s="1">
+        <v>34.337514379264235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -4652,24 +4735,25 @@
         <v>17</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-      <c r="H100" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.52286742713697409</v>
+        <v>7.5</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.937331332924318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.91277084445425627</v>
+      </c>
+      <c r="J100" s="1">
+        <v>31.777935417129555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -4683,24 +4767,25 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G101">
-        <v>3</v>
-      </c>
-      <c r="H101" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.35038582454941325</v>
+        <v>7.5</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
       </c>
       <c r="I101" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.438592608872121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-4.3916427283968069</v>
+      </c>
+      <c r="J101" s="1">
+        <v>27.337018055788796</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -4714,24 +4799,25 @@
         <v>17</v>
       </c>
       <c r="E102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G102">
-        <v>3</v>
-      </c>
-      <c r="H102" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.4512557934224419</v>
+        <v>7.5</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
       </c>
       <c r="I102" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>13.557233732018791</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.80378144193389256</v>
+      </c>
+      <c r="J102" s="1">
+        <v>36.417428004204517</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -4745,24 +4831,25 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F103">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G103">
-        <v>3</v>
-      </c>
-      <c r="H103" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.3313550427173568E-2</v>
+        <v>7.5</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
       </c>
       <c r="I103" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.150011913593993</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.11193459584622507</v>
+      </c>
+      <c r="J103" s="1">
+        <v>30.590216119326776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -4776,24 +4863,25 @@
         <v>17</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F104">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G104">
-        <v>3</v>
-      </c>
-      <c r="H104" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.43253818301643998</v>
+        <v>7.5</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
       </c>
       <c r="I104" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.488784357990887</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.4208084174952846</v>
+      </c>
+      <c r="J104" s="1">
+        <v>29.191081071415319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -4807,24 +4895,25 @@
         <v>17</v>
       </c>
       <c r="E105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>3</v>
-      </c>
-      <c r="H105" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.3686422270488738</v>
+        <v>7.5</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
       </c>
       <c r="I105" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.945145557067011</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.506078763150922</v>
+      </c>
+      <c r="J105" s="1">
+        <v>30.536215812887153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -4838,24 +4927,25 @@
         <v>17</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G106">
-        <v>5</v>
-      </c>
-      <c r="H106" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.42525232295072729</v>
+        <v>7.5</v>
+      </c>
+      <c r="H106">
+        <v>10</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.914338563371764</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-8.216724108028016</v>
+      </c>
+      <c r="J106" s="1">
+        <v>29.597316402071339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -4869,24 +4959,25 @@
         <v>17</v>
       </c>
       <c r="E107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G107">
-        <v>5</v>
-      </c>
-      <c r="H107" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.1229024741238787</v>
+        <v>7.5</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
       </c>
       <c r="I107" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>22.338413094751363</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.2176781895747415</v>
+      </c>
+      <c r="J107" s="1">
+        <v>31.108404265408105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -4900,24 +4991,25 @@
         <v>17</v>
       </c>
       <c r="E108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G108">
-        <v>5</v>
-      </c>
-      <c r="H108" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.3029039155406059</v>
+        <v>7.5</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
       </c>
       <c r="I108" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>22.67255952740134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.4746201946912341</v>
+      </c>
+      <c r="J108" s="1">
+        <v>40.882297447183397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -4931,24 +5023,25 @@
         <v>17</v>
       </c>
       <c r="E109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G109">
-        <v>5</v>
-      </c>
-      <c r="H109" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.10575823274859084</v>
+        <v>7.5</v>
+      </c>
+      <c r="H109">
+        <v>10</v>
       </c>
       <c r="I109" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>17.270810901420546</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.001275298078121</v>
+      </c>
+      <c r="J109" s="1">
+        <v>41.726373568033111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -4962,24 +5055,25 @@
         <v>17</v>
       </c>
       <c r="E110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F110">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>5</v>
-      </c>
-      <c r="H110" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-1.4944865192243035</v>
+        <v>7.5</v>
+      </c>
+      <c r="H110">
+        <v>10</v>
       </c>
       <c r="I110" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.948976718898889</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.37705523378384442</v>
+      </c>
+      <c r="J110" s="1">
+        <v>37.571117481314872</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -4993,24 +5087,25 @@
         <v>17</v>
       </c>
       <c r="E111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>5</v>
-      </c>
-      <c r="H111" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>1.9531271301785746</v>
+        <v>7.5</v>
+      </c>
+      <c r="H111">
+        <v>10</v>
       </c>
       <c r="I111" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.671865089944443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-5.7834213582720349</v>
+      </c>
+      <c r="J111" s="1">
+        <v>30.364527017918675</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2</v>
       </c>
@@ -5024,24 +5119,25 @@
         <v>17</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>5</v>
-      </c>
-      <c r="H112" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>-0.58237647433584672</v>
+        <v>7.5</v>
+      </c>
+      <c r="H112">
+        <v>10</v>
       </c>
       <c r="I112" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.678633334282136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-9.753017110615593</v>
+      </c>
+      <c r="J112" s="1">
+        <v>24.723255243022464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>2</v>
       </c>
@@ -5055,24 +5151,25 @@
         <v>17</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F113">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G113">
-        <v>5</v>
-      </c>
-      <c r="H113" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.23261759493233652</v>
+        <v>7.5</v>
+      </c>
+      <c r="H113">
+        <v>10</v>
       </c>
       <c r="I113" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>18.555026507528972</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.8063689463669883</v>
+      </c>
+      <c r="J113" s="1">
+        <v>40.607853185981888</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -5086,24 +5183,25 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F114">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114" s="1">
-        <f ca="1">NORMINV(RAND(),0,3)</f>
-        <v>8.5038732184171888</v>
+        <v>7.5</v>
+      </c>
+      <c r="H114">
+        <v>2.5</v>
       </c>
       <c r="I114" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>22.12770062050366</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.9049232271552796</v>
+      </c>
+      <c r="J114" s="1">
+        <v>32.136798847473884</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>2</v>
       </c>
@@ -5117,24 +5215,25 @@
         <v>18</v>
       </c>
       <c r="E115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F115">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G115">
-        <v>2</v>
-      </c>
-      <c r="H115" s="1">
-        <f t="shared" ref="H115:H130" ca="1" si="8">NORMINV(RAND(),0,3)</f>
-        <v>1.0621097101199428</v>
+        <v>7.5</v>
+      </c>
+      <c r="H115">
+        <v>2.5</v>
       </c>
       <c r="I115" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.355165929738501</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.22435929462914295</v>
+      </c>
+      <c r="J115" s="1">
+        <v>31.758513089372343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>2</v>
       </c>
@@ -5148,24 +5247,25 @@
         <v>18</v>
       </c>
       <c r="E116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F116">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G116">
-        <v>2</v>
-      </c>
-      <c r="H116" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-3.301955727796674</v>
+        <v>7.5</v>
+      </c>
+      <c r="H116">
+        <v>2.5</v>
       </c>
       <c r="I116" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>13.049960397081431</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.43599942047629658</v>
+      </c>
+      <c r="J116" s="1">
+        <v>29.754961785627728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -5179,24 +5279,25 @@
         <v>18</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G117">
-        <v>2</v>
-      </c>
-      <c r="H117" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.2640383191125251</v>
+        <v>7.5</v>
+      </c>
+      <c r="H117">
+        <v>2.5</v>
       </c>
       <c r="I117" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.617727754431687</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.9128051610672161</v>
+      </c>
+      <c r="J117" s="1">
+        <v>28.994388830370031</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -5210,24 +5311,25 @@
         <v>18</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G118">
-        <v>2</v>
-      </c>
-      <c r="H118" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-2.1357557446736108</v>
+        <v>7.5</v>
+      </c>
+      <c r="H118">
+        <v>2.5</v>
       </c>
       <c r="I118" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.5440975883633072</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.2059033271689292</v>
+      </c>
+      <c r="J118" s="1">
+        <v>26.583970127612101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2</v>
       </c>
@@ -5241,24 +5343,25 @@
         <v>18</v>
       </c>
       <c r="E119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>2</v>
-      </c>
-      <c r="H119" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-4.5836771262258704</v>
+        <v>7.5</v>
+      </c>
+      <c r="H119">
+        <v>2.5</v>
       </c>
       <c r="I119" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.4858758046619709</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.8550454018915121</v>
+      </c>
+      <c r="J119" s="1">
+        <v>27.171495517020155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -5272,24 +5375,25 @@
         <v>18</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G120">
-        <v>2</v>
-      </c>
-      <c r="H120" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>7.6424989019558756E-2</v>
+        <v>7.5</v>
+      </c>
+      <c r="H120">
+        <v>2.5</v>
       </c>
       <c r="I120" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.224723407978637</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.1095114107474586</v>
+      </c>
+      <c r="J120" s="1">
+        <v>29.112244118485076</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -5303,24 +5407,25 @@
         <v>18</v>
       </c>
       <c r="E121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G121">
-        <v>2</v>
-      </c>
-      <c r="H121" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.81899934417077247</v>
+        <v>7.5</v>
+      </c>
+      <c r="H121">
+        <v>2.5</v>
       </c>
       <c r="I121" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.07369840593878</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.8533387846503731</v>
+      </c>
+      <c r="J121" s="1">
+        <v>29.887963302015166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -5334,24 +5439,25 @@
         <v>18</v>
       </c>
       <c r="E122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F122">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-4.1855329027207322</v>
+        <v>7.5</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
       </c>
       <c r="I122" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.2114354836132879</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.1273262507905404</v>
+      </c>
+      <c r="J122" s="1">
+        <v>26.042207461763088</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>2</v>
       </c>
@@ -5365,24 +5471,25 @@
         <v>18</v>
       </c>
       <c r="E123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F123">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-0.70483347163636978</v>
+        <v>7.5</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
       </c>
       <c r="I123" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.357928483550376</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.1647449582142047</v>
+      </c>
+      <c r="J123" s="1">
+        <v>26.961784103738665</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>2</v>
       </c>
@@ -5396,24 +5503,25 @@
         <v>18</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F124">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>3.5969526112756824</v>
+        <v>7.5</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
       </c>
       <c r="I124" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.199727466279015</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.93627603588470032</v>
+      </c>
+      <c r="J124" s="1">
+        <v>26.453580781684956</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -5427,24 +5535,25 @@
         <v>18</v>
       </c>
       <c r="E125">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F125">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-1.6246917676057806</v>
+        <v>7.5</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
       </c>
       <c r="I125" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>9.9468657685081858</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.5576121556541112</v>
+      </c>
+      <c r="J125" s="1">
+        <v>27.177236236489257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -5458,24 +5567,25 @@
         <v>18</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F126">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.10118563178353644</v>
+        <v>7.5</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
       </c>
       <c r="I126" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.082300078294805</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.9289504686134733</v>
+      </c>
+      <c r="J126" s="1">
+        <v>23.633943215764621</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>2</v>
       </c>
@@ -5489,24 +5599,25 @@
         <v>18</v>
       </c>
       <c r="E127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F127">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2.0003882865288518</v>
+        <v>7.5</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
       </c>
       <c r="I127" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>14.244883351378785</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6.5369025442754651</v>
+      </c>
+      <c r="J127" s="1">
+        <v>38.121451395446847</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -5520,24 +5631,25 @@
         <v>18</v>
       </c>
       <c r="E128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F128">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>-2.9819931875340036</v>
+        <v>7.5</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
       </c>
       <c r="I128" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>10.751919113530073</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.68317988127683782</v>
+      </c>
+      <c r="J128" s="1">
+        <v>27.793558465246498</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>2</v>
       </c>
@@ -5551,24 +5663,25 @@
         <v>18</v>
       </c>
       <c r="E129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.94623229620028027</v>
+        <v>7.5</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
       </c>
       <c r="I129" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>16.324552042445969</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.4733188992896245</v>
+      </c>
+      <c r="J129" s="1">
+        <v>26.963938199775608</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -5582,24 +5695,25 @@
         <v>17</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G130">
         <v>5</v>
       </c>
-      <c r="H130" s="1">
-        <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>1.3500833719510856</v>
+      <c r="H130">
+        <v>10</v>
       </c>
       <c r="I130" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12.564500489054566</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.7848559797690022</v>
+      </c>
+      <c r="J130" s="1">
+        <v>43.892915816803956</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -5613,24 +5727,25 @@
         <v>17</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G131">
         <v>5</v>
       </c>
-      <c r="H131" s="1">
-        <f t="shared" ref="H131:H146" ca="1" si="9">NORMINV(RAND(),2,1)</f>
-        <v>2.2993642821545808</v>
+      <c r="H131">
+        <v>10</v>
       </c>
       <c r="I131" s="1">
-        <f t="shared" ref="I131:I193" ca="1" si="10">E131 + F131 + G131 + H131 + NORMINV(RAND(),0,2)</f>
-        <v>12.434191162438079</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.4532551078881206</v>
+      </c>
+      <c r="J131" s="1">
+        <v>43.980953327875163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -5644,24 +5759,25 @@
         <v>17</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G132">
         <v>5</v>
       </c>
-      <c r="H132" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.399713944978437</v>
+      <c r="H132">
+        <v>10</v>
       </c>
       <c r="I132" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>12.792230111470008</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.7734598617354032</v>
+      </c>
+      <c r="J132" s="1">
+        <v>42.920679866999187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -5675,24 +5791,25 @@
         <v>17</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G133">
         <v>5</v>
       </c>
-      <c r="H133" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2639585740549184</v>
+      <c r="H133">
+        <v>10</v>
       </c>
       <c r="I133" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>14.646460125206202</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.5831732585092018</v>
+      </c>
+      <c r="J133" s="1">
+        <v>42.023968086670379</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -5706,24 +5823,25 @@
         <v>17</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G134">
         <v>5</v>
       </c>
-      <c r="H134" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2188443351344385</v>
+      <c r="H134">
+        <v>10</v>
       </c>
       <c r="I134" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>15.096612115964808</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.2476020834050932</v>
+      </c>
+      <c r="J134" s="1">
+        <v>42.913544903231376</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -5737,24 +5855,25 @@
         <v>17</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F135">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G135">
         <v>5</v>
       </c>
-      <c r="H135" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.6529634702516081</v>
+      <c r="H135">
+        <v>10</v>
       </c>
       <c r="I135" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>14.288033645894171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.6267203526451033</v>
+      </c>
+      <c r="J135" s="1">
+        <v>44.096990182266126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -5768,24 +5887,25 @@
         <v>17</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F136">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G136">
         <v>5</v>
       </c>
-      <c r="H136" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.7724127144006041</v>
+      <c r="H136">
+        <v>10</v>
       </c>
       <c r="I136" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>19.137978416380779</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.6517959513254068</v>
+      </c>
+      <c r="J136" s="1">
+        <v>46.542163422896245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -5799,24 +5919,25 @@
         <v>17</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G137">
         <v>5</v>
       </c>
-      <c r="H137" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-0.37456838413867466</v>
+      <c r="H137">
+        <v>10</v>
       </c>
       <c r="I137" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.441009348182369</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.8811265387479235</v>
+      </c>
+      <c r="J137" s="1">
+        <v>44.808741176988271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -5830,24 +5951,25 @@
         <v>17</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F138">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.879870330822708</v>
+        <v>5</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
       </c>
       <c r="I138" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.464318742003494</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.8941552012956433</v>
+      </c>
+      <c r="J138" s="1">
+        <v>34.998198694147277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -5861,24 +5983,25 @@
         <v>17</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F139">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4612766234975181</v>
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
       </c>
       <c r="I139" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>15.046542895236556</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.6164153392766716</v>
+      </c>
+      <c r="J139" s="1">
+        <v>33.782853154978675</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -5892,24 +6015,25 @@
         <v>17</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.2340389992034377</v>
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
       </c>
       <c r="I140" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.6884360259695157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.4465533205255863</v>
+      </c>
+      <c r="J140" s="1">
+        <v>34.312489158743908</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -5923,24 +6047,25 @@
         <v>17</v>
       </c>
       <c r="E141">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>-2.9236710066121052E-2</v>
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
       </c>
       <c r="I141" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.7702715353848504</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.3985287147971968</v>
+      </c>
+      <c r="J141" s="1">
+        <v>39.449591297117514</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -5954,24 +6079,25 @@
         <v>17</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F142">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="H142" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.4163639161782746</v>
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
       </c>
       <c r="I142" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.380177114793595</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.796546335072728</v>
+      </c>
+      <c r="J142" s="1">
+        <v>36.386602461980033</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -5985,24 +6111,25 @@
         <v>17</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.2779083351869018</v>
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
       </c>
       <c r="I143" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.536605337751316</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.7391710648194245</v>
+      </c>
+      <c r="J143" s="1">
+        <v>29.444980928529901</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -6016,24 +6143,25 @@
         <v>17</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F144">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>1.4860890250603509</v>
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
       </c>
       <c r="I144" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>14.171078782224276</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.6663195485761384</v>
+      </c>
+      <c r="J144" s="1">
+        <v>29.510983965192136</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -6047,24 +6175,25 @@
         <v>17</v>
       </c>
       <c r="E145">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F145">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>2.3361388763045108</v>
+        <v>5</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
       </c>
       <c r="I145" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.7635998933689052</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.94134718762798619</v>
+      </c>
+      <c r="J145" s="1">
+        <v>30.961662694718278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -6078,24 +6207,25 @@
         <v>18</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G146">
-        <v>3</v>
-      </c>
-      <c r="H146" s="1">
-        <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-4.6665911895337011</v>
+        <v>5</v>
+      </c>
+      <c r="H146">
+        <v>5</v>
       </c>
       <c r="I146" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.5795507903161505</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.32819282289270313</v>
+      </c>
+      <c r="J146" s="1">
+        <v>35.833881541245276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -6109,24 +6239,25 @@
         <v>18</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F147">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G147">
-        <v>3</v>
-      </c>
-      <c r="H147" s="1">
-        <f t="shared" ref="H147:H161" ca="1" si="11">NORMINV(RAND(),0,2)</f>
-        <v>1.22430427289224</v>
+        <v>5</v>
+      </c>
+      <c r="H147">
+        <v>5</v>
       </c>
       <c r="I147" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>10.123135442360962</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3558987456597127</v>
+      </c>
+      <c r="J147" s="1">
+        <v>37.565027735675507</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -6140,24 +6271,25 @@
         <v>18</v>
       </c>
       <c r="E148">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F148">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G148">
-        <v>3</v>
-      </c>
-      <c r="H148" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.6567663109654092</v>
+        <v>5</v>
+      </c>
+      <c r="H148">
+        <v>5</v>
       </c>
       <c r="I148" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>14.955718779123105</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.813885588678124</v>
+      </c>
+      <c r="J148" s="1">
+        <v>38.167235373361976</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -6171,24 +6303,25 @@
         <v>18</v>
       </c>
       <c r="E149">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F149">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G149">
-        <v>3</v>
-      </c>
-      <c r="H149" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.1380130135702626</v>
+        <v>5</v>
+      </c>
+      <c r="H149">
+        <v>5</v>
       </c>
       <c r="I149" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.4185407559477987</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.1224396452550005</v>
+      </c>
+      <c r="J149" s="1">
+        <v>40.062784975696459</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -6202,24 +6335,25 @@
         <v>18</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G150">
-        <v>3</v>
-      </c>
-      <c r="H150" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-3.427481586309804</v>
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>5</v>
       </c>
       <c r="I150" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.8715313421002966</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.25198256316936524</v>
+      </c>
+      <c r="J150" s="1">
+        <v>30.710206930717739</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -6233,24 +6367,25 @@
         <v>18</v>
       </c>
       <c r="E151">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F151">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G151">
-        <v>3</v>
-      </c>
-      <c r="H151" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.24391620824405497</v>
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>5</v>
       </c>
       <c r="I151" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>12.173528639114986</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0012471143818042</v>
+      </c>
+      <c r="J151" s="1">
+        <v>36.189231969369182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -6264,24 +6399,25 @@
         <v>18</v>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G152">
-        <v>3</v>
-      </c>
-      <c r="H152" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>2.0950990831652616</v>
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
       </c>
       <c r="I152" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>13.221308416760737</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.4087703070448752</v>
+      </c>
+      <c r="J152" s="1">
+        <v>35.645570951073431</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -6295,24 +6431,25 @@
         <v>18</v>
       </c>
       <c r="E153">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F153">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G153">
-        <v>3</v>
-      </c>
-      <c r="H153" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>4.8708104312610301</v>
+        <v>5</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
       </c>
       <c r="I153" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>15.426311616839973</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.859997542785442</v>
+      </c>
+      <c r="J153" s="1">
+        <v>36.723166117421897</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -6326,24 +6463,25 @@
         <v>18</v>
       </c>
       <c r="E154">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F154">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G154">
-        <v>2</v>
-      </c>
-      <c r="H154" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-1.7408704826108825</v>
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>2.5</v>
       </c>
       <c r="I154" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.6517725683167157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.9791489803504527</v>
+      </c>
+      <c r="J154" s="1">
+        <v>30.592692754509098</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -6357,24 +6495,25 @@
         <v>18</v>
       </c>
       <c r="E155">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G155">
-        <v>2</v>
-      </c>
-      <c r="H155" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-0.95883277182525661</v>
+        <v>5</v>
+      </c>
+      <c r="H155">
+        <v>2.5</v>
       </c>
       <c r="I155" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.2262726840766511</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.980330198921012</v>
+      </c>
+      <c r="J155" s="1">
+        <v>35.138238146753991</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -6388,24 +6527,25 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G156">
-        <v>2</v>
-      </c>
-      <c r="H156" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-3.6229717307014542</v>
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>2.5</v>
       </c>
       <c r="I156" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.7839816318428836</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.6840443435568231</v>
+      </c>
+      <c r="J156" s="1">
+        <v>34.893729542537812</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -6419,24 +6559,25 @@
         <v>18</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F157">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G157">
-        <v>2</v>
-      </c>
-      <c r="H157" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1.8253672371850109</v>
+        <v>5</v>
+      </c>
+      <c r="H157">
+        <v>2.5</v>
       </c>
       <c r="I157" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.2587913097255248</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.89279845650960832</v>
+      </c>
+      <c r="J157" s="1">
+        <v>32.181170100124163</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -6450,24 +6591,25 @@
         <v>18</v>
       </c>
       <c r="E158">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F158">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G158">
-        <v>2</v>
-      </c>
-      <c r="H158" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-0.95773697874641106</v>
+        <v>5</v>
+      </c>
+      <c r="H158">
+        <v>2.5</v>
       </c>
       <c r="I158" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.6526490208979361</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.57847057138099955</v>
+      </c>
+      <c r="J158" s="1">
+        <v>35.195708825312479</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -6481,24 +6623,25 @@
         <v>18</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F159">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G159">
-        <v>2</v>
-      </c>
-      <c r="H159" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>0.7437645662366611</v>
+        <v>5</v>
+      </c>
+      <c r="H159">
+        <v>2.5</v>
       </c>
       <c r="I159" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>10.961572889197603</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.49886813457446066</v>
+      </c>
+      <c r="J159" s="1">
+        <v>29.366397640080166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -6512,24 +6655,25 @@
         <v>18</v>
       </c>
       <c r="E160">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F160">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G160">
-        <v>2</v>
-      </c>
-      <c r="H160" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-0.68143200826012063</v>
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>2.5</v>
       </c>
       <c r="I160" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.3245023539333722</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3172399014144138</v>
+      </c>
+      <c r="J160" s="1">
+        <v>36.143304896859355</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -6543,24 +6687,25 @@
         <v>18</v>
       </c>
       <c r="E161">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F161">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G161">
-        <v>2</v>
-      </c>
-      <c r="H161" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>-2.0818904458234404</v>
+        <v>5</v>
+      </c>
+      <c r="H161">
+        <v>2.5</v>
       </c>
       <c r="I161" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.7182618607357183</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.4826379002307615</v>
+      </c>
+      <c r="J161" s="1">
+        <v>36.378310496437521</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -6574,24 +6719,25 @@
         <v>17</v>
       </c>
       <c r="E162">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F162">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G162">
         <v>5</v>
       </c>
-      <c r="H162" s="1">
-        <f ca="1">NORMINV(RAND(),2,1)</f>
-        <v>5.1325560883569032</v>
+      <c r="H162">
+        <v>10</v>
       </c>
       <c r="I162" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>18.392475863935356</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.0646485415335585</v>
+      </c>
+      <c r="J162" s="1">
+        <v>40.545431988905406</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -6605,24 +6751,25 @@
         <v>17</v>
       </c>
       <c r="E163">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F163">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G163">
         <v>5</v>
       </c>
-      <c r="H163" s="1">
-        <f t="shared" ref="H163:H178" ca="1" si="12">NORMINV(RAND(),2,1)</f>
-        <v>1.1066244042373277</v>
+      <c r="H163">
+        <v>10</v>
       </c>
       <c r="I163" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>10.176940415133487</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.57382652541656509</v>
+      </c>
+      <c r="J163" s="1">
+        <v>42.570151353195705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -6636,24 +6783,25 @@
         <v>17</v>
       </c>
       <c r="E164">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G164">
         <v>5</v>
       </c>
-      <c r="H164" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.4673312834797421</v>
+      <c r="H164">
+        <v>10</v>
       </c>
       <c r="I164" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>12.40296399527379</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4.4670088542808113</v>
+      </c>
+      <c r="J164" s="1">
+        <v>40.456857703260702</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -6667,24 +6815,25 @@
         <v>17</v>
       </c>
       <c r="E165">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F165">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G165">
         <v>5</v>
       </c>
-      <c r="H165" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.6338232728003037</v>
+      <c r="H165">
+        <v>10</v>
       </c>
       <c r="I165" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>15.113122192032575</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.557605321588746</v>
+      </c>
+      <c r="J165" s="1">
+        <v>45.763400619858658</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -6698,24 +6847,25 @@
         <v>17</v>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F166">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G166">
         <v>5</v>
       </c>
-      <c r="H166" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.3480756220570633</v>
+      <c r="H166">
+        <v>10</v>
       </c>
       <c r="I166" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>15.698223464761382</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.5781962646217487</v>
+      </c>
+      <c r="J166" s="1">
+        <v>41.672495520683377</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -6729,24 +6879,25 @@
         <v>17</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F167">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G167">
         <v>5</v>
       </c>
-      <c r="H167" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.1995557184897638</v>
+      <c r="H167">
+        <v>10</v>
       </c>
       <c r="I167" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>10.686989398435912</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.7766922470252466</v>
+      </c>
+      <c r="J167" s="1">
+        <v>42.984176047553923</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -6760,24 +6911,25 @@
         <v>17</v>
       </c>
       <c r="E168">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F168">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G168">
         <v>5</v>
       </c>
-      <c r="H168" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.50471478979198969</v>
+      <c r="H168">
+        <v>10</v>
       </c>
       <c r="I168" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>15.534612693762673</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5869924159010083</v>
+      </c>
+      <c r="J168" s="1">
+        <v>44.923557997299518</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -6791,24 +6943,25 @@
         <v>17</v>
       </c>
       <c r="E169">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F169">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G169">
         <v>5</v>
       </c>
-      <c r="H169" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.3094262703219943</v>
+      <c r="H169">
+        <v>10</v>
       </c>
       <c r="I169" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.626133063499772</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.56134339398934552</v>
+      </c>
+      <c r="J169" s="1">
+        <v>39.721886584484068</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -6822,24 +6975,25 @@
         <v>17</v>
       </c>
       <c r="E170">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F170">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.9044978449037127</v>
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
       </c>
       <c r="I170" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.8571871384628018</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5725057756920764</v>
+      </c>
+      <c r="J170" s="1">
+        <v>36.809921137118657</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -6853,24 +7007,25 @@
         <v>17</v>
       </c>
       <c r="E171">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F171">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G171">
-        <v>1</v>
-      </c>
-      <c r="H171" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.76979569075294574</v>
+        <v>5</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
       </c>
       <c r="I171" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>10.59461590861412</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5061655862965537</v>
+      </c>
+      <c r="J171" s="1">
+        <v>30.044182141931696</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -6884,24 +7039,25 @@
         <v>17</v>
       </c>
       <c r="E172">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F172">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G172">
-        <v>1</v>
-      </c>
-      <c r="H172" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.2439955198673949</v>
+        <v>5</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
       </c>
       <c r="I172" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.5990782255233746</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.8442125994205392</v>
+      </c>
+      <c r="J172" s="1">
+        <v>35.747733037508894</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -6915,24 +7071,25 @@
         <v>17</v>
       </c>
       <c r="E173">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F173">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G173">
-        <v>1</v>
-      </c>
-      <c r="H173" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1.512073562650317</v>
+        <v>5</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
       </c>
       <c r="I173" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.693421616615943</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.3460596350497023</v>
+      </c>
+      <c r="J173" s="1">
+        <v>33.115370976214621</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -6946,24 +7103,25 @@
         <v>17</v>
       </c>
       <c r="E174">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F174">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G174">
-        <v>1</v>
-      </c>
-      <c r="H174" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.94672257950420713</v>
+        <v>5</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
       </c>
       <c r="I174" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.826568839842083</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.4733677515765216</v>
+      </c>
+      <c r="J174" s="1">
+        <v>32.314718342445097</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -6977,24 +7135,25 @@
         <v>17</v>
       </c>
       <c r="E175">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F175">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G175">
-        <v>1</v>
-      </c>
-      <c r="H175" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0.19293450946868962</v>
+        <v>5</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
       </c>
       <c r="I175" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>12.714729494754042</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.8815267548867398</v>
+      </c>
+      <c r="J175" s="1">
+        <v>33.864875927372992</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -7008,24 +7167,25 @@
         <v>17</v>
       </c>
       <c r="E176">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F176">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G176">
-        <v>1</v>
-      </c>
-      <c r="H176" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>3.0603974773379385</v>
+        <v>5</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
       </c>
       <c r="I176" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.138915698144329</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.1581532050576637</v>
+      </c>
+      <c r="J176" s="1">
+        <v>30.916977320750966</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -7039,24 +7199,25 @@
         <v>17</v>
       </c>
       <c r="E177">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F177">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G177">
-        <v>1</v>
-      </c>
-      <c r="H177" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>2.376097060881551</v>
+        <v>5</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
       </c>
       <c r="I177" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.9623853891264353</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3.7266990463902365</v>
+      </c>
+      <c r="J177" s="1">
+        <v>34.962741169458873</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -7070,24 +7231,25 @@
         <v>18</v>
       </c>
       <c r="E178">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F178">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G178">
-        <v>3</v>
-      </c>
-      <c r="H178" s="1">
-        <f ca="1">NORMINV(RAND(),0,2)</f>
-        <v>-1.2659291805511852</v>
+        <v>5</v>
+      </c>
+      <c r="H178">
+        <v>5</v>
       </c>
       <c r="I178" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.7994750874388279</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.24943425971905492</v>
+      </c>
+      <c r="J178" s="1">
+        <v>34.178540694595348</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -7101,24 +7263,25 @@
         <v>18</v>
       </c>
       <c r="E179">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F179">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G179">
-        <v>3</v>
-      </c>
-      <c r="H179" s="1">
-        <f t="shared" ref="H179:H193" ca="1" si="13">NORMINV(RAND(),0,2)</f>
-        <v>-0.70914045293824346</v>
+        <v>5</v>
+      </c>
+      <c r="H179">
+        <v>5</v>
       </c>
       <c r="I179" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.9335365599533487</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.99436165332665594</v>
+      </c>
+      <c r="J179" s="1">
+        <v>35.892547494762539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -7132,24 +7295,25 @@
         <v>18</v>
       </c>
       <c r="E180">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F180">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G180">
-        <v>3</v>
-      </c>
-      <c r="H180" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.59765789114683432</v>
+        <v>5</v>
+      </c>
+      <c r="H180">
+        <v>5</v>
       </c>
       <c r="I180" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>10.071171659473322</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.4552848845905673</v>
+      </c>
+      <c r="J180" s="1">
+        <v>38.721431705665687</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -7163,24 +7327,25 @@
         <v>18</v>
       </c>
       <c r="E181">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F181">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G181">
-        <v>3</v>
-      </c>
-      <c r="H181" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.97607184198766639</v>
+        <v>5</v>
+      </c>
+      <c r="H181">
+        <v>5</v>
       </c>
       <c r="I181" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>10.333031298977907</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.8576782355606405</v>
+      </c>
+      <c r="J181" s="1">
+        <v>38.174457980199001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>3</v>
       </c>
@@ -7194,24 +7359,25 @@
         <v>18</v>
       </c>
       <c r="E182">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G182">
-        <v>3</v>
-      </c>
-      <c r="H182" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.34590658448188755</v>
+        <v>5</v>
+      </c>
+      <c r="H182">
+        <v>5</v>
       </c>
       <c r="I182" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.906149745565646</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.4448963149215357</v>
+      </c>
+      <c r="J182" s="1">
+        <v>38.301932153886256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>3</v>
       </c>
@@ -7225,24 +7391,25 @@
         <v>18</v>
       </c>
       <c r="E183">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G183">
-        <v>3</v>
-      </c>
-      <c r="H183" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.2739085714184615</v>
+        <v>5</v>
+      </c>
+      <c r="H183">
+        <v>5</v>
       </c>
       <c r="I183" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.001753532780091</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.3522973205533786</v>
+      </c>
+      <c r="J183" s="1">
+        <v>40.642508251345717</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>3</v>
       </c>
@@ -7256,24 +7423,25 @@
         <v>18</v>
       </c>
       <c r="E184">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F184">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G184">
-        <v>3</v>
-      </c>
-      <c r="H184" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.8521605048168088</v>
+        <v>5</v>
+      </c>
+      <c r="H184">
+        <v>5</v>
       </c>
       <c r="I184" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.3007880561397105</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.7575222626093282</v>
+      </c>
+      <c r="J184" s="1">
+        <v>34.24582942579476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>3</v>
       </c>
@@ -7287,24 +7455,25 @@
         <v>18</v>
       </c>
       <c r="E185">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F185">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G185">
-        <v>3</v>
-      </c>
-      <c r="H185" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>-0.25981357929659599</v>
+        <v>5</v>
+      </c>
+      <c r="H185">
+        <v>5</v>
       </c>
       <c r="I185" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.7179323366746315</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-3.165903698499084</v>
+      </c>
+      <c r="J185" s="1">
+        <v>30.806239775241853</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>3</v>
       </c>
@@ -7318,24 +7487,25 @@
         <v>18</v>
       </c>
       <c r="E186">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F186">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G186">
-        <v>2</v>
-      </c>
-      <c r="H186" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>3.6036112162235425</v>
+        <v>5</v>
+      </c>
+      <c r="H186">
+        <v>2.5</v>
       </c>
       <c r="I186" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>15.274651544777821</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1.898112305472299</v>
+      </c>
+      <c r="J186" s="1">
+        <v>27.83255096598457</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>3</v>
       </c>
@@ -7349,24 +7519,25 @@
         <v>18</v>
       </c>
       <c r="E187">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F187">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G187">
-        <v>2</v>
-      </c>
-      <c r="H187" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.388575797201816</v>
+        <v>5</v>
+      </c>
+      <c r="H187">
+        <v>2.5</v>
       </c>
       <c r="I187" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.6789711248996735</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.2710706255071726</v>
+      </c>
+      <c r="J187" s="1">
+        <v>27.975594554214094</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>3</v>
       </c>
@@ -7380,24 +7551,25 @@
         <v>18</v>
       </c>
       <c r="E188">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F188">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G188">
-        <v>2</v>
-      </c>
-      <c r="H188" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>2.9500844173052858</v>
+        <v>5</v>
+      </c>
+      <c r="H188">
+        <v>2.5</v>
       </c>
       <c r="I188" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>13.037913834308283</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.26508539714832224</v>
+      </c>
+      <c r="J188" s="1">
+        <v>32.016733326969423</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>3</v>
       </c>
@@ -7411,24 +7583,25 @@
         <v>18</v>
       </c>
       <c r="E189">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F189">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G189">
-        <v>2</v>
-      </c>
-      <c r="H189" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>5.3029395421101109</v>
+        <v>5</v>
+      </c>
+      <c r="H189">
+        <v>2.5</v>
       </c>
       <c r="I189" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>13.852455023131963</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-2.7576398460227214</v>
+      </c>
+      <c r="J189" s="1">
+        <v>30.883442577398245</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>3</v>
       </c>
@@ -7442,24 +7615,25 @@
         <v>18</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F190">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G190">
-        <v>2</v>
-      </c>
-      <c r="H190" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>-0.90494963355093172</v>
+        <v>5</v>
+      </c>
+      <c r="H190">
+        <v>2.5</v>
       </c>
       <c r="I190" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.2683271682067501</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-0.16922449282245153</v>
+      </c>
+      <c r="J190" s="1">
+        <v>34.448271319655333</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>3</v>
       </c>
@@ -7473,24 +7647,25 @@
         <v>18</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F191">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G191">
-        <v>2</v>
-      </c>
-      <c r="H191" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>-1.5098533837775463</v>
+        <v>5</v>
+      </c>
+      <c r="H191">
+        <v>2.5</v>
       </c>
       <c r="I191" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.848586967060287</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.8373968174972697</v>
+      </c>
+      <c r="J191" s="1">
+        <v>34.052479309229859</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>3</v>
       </c>
@@ -7504,24 +7679,25 @@
         <v>18</v>
       </c>
       <c r="E192">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F192">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G192">
-        <v>2</v>
-      </c>
-      <c r="H192" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.13315346182180324</v>
+        <v>5</v>
+      </c>
+      <c r="H192">
+        <v>2.5</v>
       </c>
       <c r="I192" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>12.718792465653282</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.5576019493227053</v>
+      </c>
+      <c r="J192" s="1">
+        <v>34.895634630559783</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>3</v>
       </c>
@@ -7535,25 +7711,26 @@
         <v>18</v>
       </c>
       <c r="E193">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G193">
-        <v>2</v>
-      </c>
-      <c r="H193" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1.5851361000716877</v>
+        <v>5</v>
+      </c>
+      <c r="H193">
+        <v>2.5</v>
       </c>
       <c r="I193" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.3781794146532782</v>
+        <v>-3.156123791570804</v>
+      </c>
+      <c r="J193" s="1">
+        <v>29.279365589410105</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E193">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F193">
     <sortCondition ref="A2:A193"/>
     <sortCondition ref="B2:B193"/>
   </sortState>
@@ -7565,8 +7742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308B3B2-2514-984D-AFD4-5A66563DEF9F}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7603,18 +7780,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">NORMINV(RAND(),10,3)</f>
-        <v>12.222143394501277</v>
+        <v>16.740523431308382</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <f ca="1">D2 + E2+ 1.25*C2+5+NORMINV(RAND(),0,5)</f>
-        <v>29.129123860523311</v>
+        <v>42.932451866649593</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7625,18 +7800,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C9" ca="1" si="0">NORMINV(RAND(),10,3)</f>
-        <v>6.2235939686829038</v>
+        <v>16.788347545548092</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F49" ca="1" si="1">D3 + E3+ 1.25*C3+5+NORMINV(RAND(),0,5)</f>
-        <v>21.662663414292354</v>
+        <v>30.262353390285114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7647,18 +7820,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.684656629133229</v>
+        <v>19.300882361301706</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.081191539023486</v>
+        <v>27.210077640807086</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7669,18 +7840,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5575430416720284</v>
+        <v>19.572098572698728</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.516393404066882</v>
+        <v>36.745893858826101</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7691,18 +7860,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.3805876570943383</v>
+        <v>13.090105631845866</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.764398196943219</v>
+        <v>29.80058322183319</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7713,18 +7880,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>11.710661080619479</v>
+        <v>16.830441659310051</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>26.919929803948683</v>
+        <v>38.456056696071535</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7735,18 +7900,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>12.509736350104205</v>
+        <v>21.087606718808285</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>33.409242197585421</v>
+        <v>38.562590366308754</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7757,18 +7920,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.532136693737618</v>
+        <v>14.175705259412585</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.658067827231235</v>
+        <v>35.060660765532077</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7779,18 +7940,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">NORMINV(RAND(),5,1)</f>
-        <v>4.7090468669429564</v>
+        <v>4.4540668603421452</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.65752112836293</v>
+        <v>17.234432001998307</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7801,18 +7960,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:C17" ca="1" si="2">NORMINV(RAND(),5,1)</f>
-        <v>4.0919559154614547</v>
+        <v>6.8659830503945711</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>11.914085022870673</v>
+        <v>20.558993132085188</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7823,18 +7980,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.1006602211921921</v>
+        <v>4.7231553845530216</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.710103254804718</v>
+        <v>17.761613292871317</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7845,18 +8000,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.5698822226607145</v>
+        <v>5.8079199801821666</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.283983830923138</v>
+        <v>8.4546906240639856</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7867,18 +8020,16 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.283554510118603</v>
+        <v>6.3474350606409935</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.828127971635574</v>
+        <v>17.894566352533037</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7889,18 +8040,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.9886752084470958</v>
+        <v>4.9910333273911247</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>12.054929472511482</v>
+        <v>18.876821397578727</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -7911,18 +8060,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.729657313184477</v>
+        <v>5.443867756272347</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.802107383714254</v>
+        <v>21.274705380220791</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -7933,18 +8080,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.9342211869423869</v>
+        <v>6.0924480474519811</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.139559815398904</v>
+        <v>17.257634166899546</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7955,18 +8100,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <f ca="1">NORMINV(RAND(),12,4)</f>
-        <v>5.4455197113833425</v>
+        <v>12.551785869726</v>
       </c>
       <c r="D18" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.881786196683901</v>
+        <v>27.400333662168499</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -7977,18 +8120,16 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:C25" ca="1" si="3">NORMINV(RAND(),12,4)</f>
-        <v>11.209220515236387</v>
+        <v>14.677997504472465</v>
       </c>
       <c r="D19" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.281960072554735</v>
+        <v>41.671638855827112</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -7999,18 +8140,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.0890597493628951</v>
+        <v>6.3721891324125526</v>
       </c>
       <c r="D20" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.44314774901736</v>
+        <v>28.807191738387573</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8021,18 +8160,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.092279445586547</v>
+        <v>14.406961205896865</v>
       </c>
       <c r="D21" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.457316888412695</v>
+        <v>24.105964192296632</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8043,18 +8180,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>10.905694913675912</v>
+        <v>8.2698695214861981</v>
       </c>
       <c r="D22" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.558899274171178</v>
+        <v>39.777474551456123</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8065,18 +8200,16 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.4674601162475174</v>
+        <v>10.424422440400685</v>
       </c>
       <c r="D23" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.705430403337751</v>
+        <v>27.639773723080914</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -8087,18 +8220,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11.194796516801738</v>
+        <v>13.47310375338721</v>
       </c>
       <c r="D24" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>34.245138173111137</v>
+        <v>32.812876395949999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -8109,18 +8240,16 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>15.715670428252482</v>
+        <v>12.279886579399953</v>
       </c>
       <c r="D25" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.991864343639218</v>
+        <v>31.841902983971764</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8131,18 +8260,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="2">
-        <f ca="1">NORMINV(RAND(),6,1)</f>
-        <v>5.1606322572782721</v>
+        <v>5.3182127552804381</v>
       </c>
       <c r="D26" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.729365158891309</v>
+        <v>32.23457362027824</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -8153,18 +8280,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" ref="C27:C33" ca="1" si="4">NORMINV(RAND(),6,1)</f>
-        <v>5.4505104487450282</v>
+        <v>5.7838630449438817</v>
       </c>
       <c r="D27" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.009400121653442</v>
+        <v>26.933398445002403</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8175,18 +8300,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.1337543547810727</v>
+        <v>6.0602340539404134</v>
       </c>
       <c r="D28" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.651133413817195</v>
+        <v>38.643878015873554</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -8197,18 +8320,16 @@
         <v>4</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.8522886807193935</v>
+        <v>5.5199093188456336</v>
       </c>
       <c r="D29" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.066183357504684</v>
+        <v>36.213601413501749</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -8219,18 +8340,16 @@
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.2195146639072139</v>
+        <v>7.4959869129489736</v>
       </c>
       <c r="D30" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.576993623799705</v>
+        <v>33.232717475653097</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8241,18 +8360,16 @@
         <v>4</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.2255962877583197</v>
+        <v>4.3700051991313007</v>
       </c>
       <c r="D31" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.870349217771352</v>
+        <v>29.334080803090785</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8263,18 +8380,16 @@
         <v>4</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.605545859674252</v>
+        <v>6.8172665806171846</v>
       </c>
       <c r="D32" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.263562984372284</v>
+        <v>32.939559649040909</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -8285,18 +8400,16 @@
         <v>4</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.3180978734383206</v>
+        <v>6.3037352821622532</v>
       </c>
       <c r="D33" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E33" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.524391138932003</v>
+        <v>46.826100189468605</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -8307,18 +8420,16 @@
         <v>5</v>
       </c>
       <c r="C34" s="2">
-        <f ca="1">NORMINV(RAND(),19,5)</f>
-        <v>24.115242394683577</v>
+        <v>13.475252753070272</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2">
         <v>4</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>41.857618332777839</v>
+        <v>40.701911018090669</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -8329,18 +8440,16 @@
         <v>5</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" ref="C35:C41" ca="1" si="5">NORMINV(RAND(),19,5)</f>
-        <v>7.3477076438698639</v>
+        <v>14.362639509202033</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E35" s="2">
         <v>4</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>19.611710153445348</v>
+        <v>53.473751924242926</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -8351,18 +8460,16 @@
         <v>5</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>25.37834313128802</v>
+        <v>27.090701391327954</v>
       </c>
       <c r="D36" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2">
         <v>4</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>51.394030476882968</v>
+        <v>51.326352819979739</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -8373,18 +8480,16 @@
         <v>5</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>11.159284700702587</v>
+        <v>11.103641245100414</v>
       </c>
       <c r="D37" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.44210797449788</v>
+        <v>37.500104459080923</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -8395,18 +8500,16 @@
         <v>5</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>22.640474268023059</v>
+        <v>13.271460875000994</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2">
         <v>4</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>40.938362528491425</v>
+        <v>48.401754192484574</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -8417,18 +8520,16 @@
         <v>5</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>15.939515317574916</v>
+        <v>13.193146209514115</v>
       </c>
       <c r="D39" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.837126065769098</v>
+        <v>44.589804916774781</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -8439,18 +8540,16 @@
         <v>5</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>21.160105022876564</v>
+        <v>10.567447110083044</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2">
         <v>4</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>39.159689661529846</v>
+        <v>37.771135003369395</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -8461,18 +8560,16 @@
         <v>5</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>13.714053194452479</v>
+        <v>11.282744097896664</v>
       </c>
       <c r="D41" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.408155498818452</v>
+        <v>38.26157019390719</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -8483,18 +8580,16 @@
         <v>4</v>
       </c>
       <c r="C42" s="2">
-        <f ca="1">NORMINV(RAND(),8,2)</f>
-        <v>8.8968097409266917</v>
+        <v>9.8382956502055716</v>
       </c>
       <c r="D42" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.208504782061901</v>
+        <v>38.048166185009691</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -8505,18 +8600,16 @@
         <v>4</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" ref="C43:C49" ca="1" si="6">NORMINV(RAND(),8,2)</f>
-        <v>4.6914829125678272</v>
+        <v>8.2057634638881822</v>
       </c>
       <c r="D43" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.666318365839032</v>
+        <v>29.767588078588616</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -8527,18 +8620,16 @@
         <v>4</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.0761501006311125</v>
+        <v>11.724361050115842</v>
       </c>
       <c r="D44" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>27.440790206960905</v>
+        <v>37.088053184667842</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -8549,18 +8640,16 @@
         <v>4</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.2557413157411936</v>
+        <v>12.361450505880542</v>
       </c>
       <c r="D45" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>13.693209706993089</v>
+        <v>30.543845194787746</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -8571,18 +8660,16 @@
         <v>4</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>5.7513361693294405</v>
+        <v>8.214428905320311</v>
       </c>
       <c r="D46" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E46" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>15.363197438817505</v>
+        <v>27.90406129099388</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -8593,18 +8680,16 @@
         <v>4</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>6.8435608917649056</v>
+        <v>7.2963836537062505</v>
       </c>
       <c r="D47" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.771901918461733</v>
+        <v>31.467024719552185</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -8615,18 +8700,16 @@
         <v>4</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>8.1390917260247821</v>
+        <v>8.6575977973457103</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.418859118032213</v>
+        <v>33.66766542762484</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -8637,18 +8720,16 @@
         <v>4</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>9.0789466505011216</v>
+        <v>8.1269374963027801</v>
       </c>
       <c r="D49" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.267667776469036</v>
+        <v>32.278690447142424</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_complex_data.xlsx
+++ b/data/fleas_complex_data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD356FA-A4AC-0942-A100-25AEA37B7021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4AD57-C71A-BD44-BC74-FFF83496F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="1760" yWindow="1580" windowWidth="20760" windowHeight="15800" activeTab="1" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="repeated" sheetId="1" r:id="rId1"/>
-    <sheet name="fac4" sheetId="2" r:id="rId2"/>
-    <sheet name="covariate" sheetId="3" r:id="rId3"/>
+    <sheet name="mixed" sheetId="4" r:id="rId2"/>
+    <sheet name="fac4" sheetId="2" r:id="rId3"/>
+    <sheet name="covariate" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="21">
   <si>
     <t>animal</t>
   </si>
@@ -96,6 +97,12 @@
   <si>
     <t>winter</t>
   </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
 </sst>
 </file>
 
@@ -104,10 +111,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,10 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -473,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDDEF0-8AF1-4F45-97DB-B027737E21A4}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -992,6 +1008,529 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93684EAA-25F2-F742-A6D5-E3E1BEE5DA1D}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>28.71</v>
+      </c>
+      <c r="D2" s="4">
+        <v>31.84</v>
+      </c>
+      <c r="E2" s="4">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F2" s="4">
+        <v>26.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>26.02</v>
+      </c>
+      <c r="D3" s="4">
+        <v>33.32</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>22.39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10.29</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>23.86</v>
+      </c>
+      <c r="D5" s="4">
+        <v>24.12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>15.94</v>
+      </c>
+      <c r="F5" s="4">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>19.45</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.35</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15.03</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25.12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>16.88</v>
+      </c>
+      <c r="D8" s="4">
+        <v>25.63</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>16.37</v>
+      </c>
+      <c r="D9" s="4">
+        <v>21.96</v>
+      </c>
+      <c r="E9" s="4">
+        <v>13.95</v>
+      </c>
+      <c r="F9" s="4">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16.43</v>
+      </c>
+      <c r="D10" s="4">
+        <v>31.49</v>
+      </c>
+      <c r="E10" s="4">
+        <v>21.560000000000002</v>
+      </c>
+      <c r="F10" s="4">
+        <v>11.33</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>22.01</v>
+      </c>
+      <c r="D11" s="4">
+        <v>35.51</v>
+      </c>
+      <c r="E11" s="4">
+        <v>16.629999999999995</v>
+      </c>
+      <c r="F11" s="4">
+        <v>16.79</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18.21</v>
+      </c>
+      <c r="D12" s="4">
+        <v>33.11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25.509999999999998</v>
+      </c>
+      <c r="F12" s="4">
+        <v>11.04</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="E13" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>17.28</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>21.59</v>
+      </c>
+      <c r="D14" s="4">
+        <v>41.87</v>
+      </c>
+      <c r="E14" s="4">
+        <v>51.29</v>
+      </c>
+      <c r="F14" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>29.68</v>
+      </c>
+      <c r="E15" s="4">
+        <v>52.79</v>
+      </c>
+      <c r="F15" s="4">
+        <v>14.31</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>19.79</v>
+      </c>
+      <c r="D16" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50.44</v>
+      </c>
+      <c r="F16" s="4">
+        <v>19.09</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>26.37</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30.96</v>
+      </c>
+      <c r="E17" s="4">
+        <v>52.28</v>
+      </c>
+      <c r="F17" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>40.92</v>
+      </c>
+      <c r="D18" s="4">
+        <v>47.05</v>
+      </c>
+      <c r="E18" s="4">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43.07</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44.72</v>
+      </c>
+      <c r="E19" s="4">
+        <v>19.54</v>
+      </c>
+      <c r="F19" s="4">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="D20" s="4">
+        <v>40.32</v>
+      </c>
+      <c r="E20" s="4">
+        <v>12.13</v>
+      </c>
+      <c r="F20" s="4">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>38.49</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42.37</v>
+      </c>
+      <c r="E21" s="4">
+        <v>19.64</v>
+      </c>
+      <c r="F21" s="4">
+        <v>22.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>52.85</v>
+      </c>
+      <c r="D22" s="4">
+        <v>49.77</v>
+      </c>
+      <c r="E22" s="4">
+        <v>35.47</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>48.88</v>
+      </c>
+      <c r="D23" s="4">
+        <v>54.36</v>
+      </c>
+      <c r="E23" s="4">
+        <v>24.94</v>
+      </c>
+      <c r="F23" s="4">
+        <v>41.92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>51.16</v>
+      </c>
+      <c r="D24" s="4">
+        <v>55.93</v>
+      </c>
+      <c r="E24" s="4">
+        <v>37.93</v>
+      </c>
+      <c r="F24" s="4">
+        <v>46.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>47.61</v>
+      </c>
+      <c r="D25" s="4">
+        <v>57.66</v>
+      </c>
+      <c r="E25" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>40.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AABB94-2F91-874E-BD21-A7A146A6F8BD}">
   <dimension ref="A1:E193"/>
   <sheetViews>
@@ -4291,7 +4830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308B3B2-2514-984D-AFD4-5A66563DEF9F}">
   <dimension ref="A1:D49"/>
   <sheetViews>

--- a/data/fleas_complex_data.xlsx
+++ b/data/fleas_complex_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4AD57-C71A-BD44-BC74-FFF83496F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5F2AB-CB8C-BB45-B879-DBCB85EFDC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1580" windowWidth="20760" windowHeight="15800" activeTab="1" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="1760" yWindow="1580" windowWidth="30380" windowHeight="15800" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="repeated" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="23">
   <si>
     <t>animal</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>autumn</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
   </si>
 </sst>
 </file>
@@ -487,18 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDDEF0-8AF1-4F45-97DB-B027737E21A4}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +524,14 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -526,19 +539,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>25.375485055828662</v>
+        <v>36.559111045336067</v>
       </c>
       <c r="D2" s="1">
-        <v>23.650666534031664</v>
+        <v>33.766670769426696</v>
       </c>
       <c r="E2" s="1">
-        <v>25.689304055716036</v>
+        <v>29.231343263436646</v>
       </c>
       <c r="F2" s="1">
-        <v>26.699257691231757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22.850508415913083</v>
+      </c>
+      <c r="G2" s="1">
+        <v>26.499480669880292</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.0721095997479999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -546,19 +565,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>30.03007249597518</v>
+        <v>31.499684014932832</v>
       </c>
       <c r="D3" s="1">
-        <v>18.848806240336696</v>
+        <v>27.106400935014747</v>
       </c>
       <c r="E3" s="1">
-        <v>14.128677249808472</v>
+        <v>31.692958034076426</v>
       </c>
       <c r="F3" s="1">
-        <v>20.092166072325806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.644456160833599</v>
+      </c>
+      <c r="G3" s="1">
+        <v>21.828505318539946</v>
+      </c>
+      <c r="H3" s="1">
+        <v>17.046843978252003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -566,19 +591,25 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>25.085509441616772</v>
+        <v>39.148817727461676</v>
       </c>
       <c r="D4" s="1">
-        <v>18.545797147009036</v>
+        <v>35.100624364113031</v>
       </c>
       <c r="E4" s="1">
-        <v>16.328221978658597</v>
+        <v>27.344980900306638</v>
       </c>
       <c r="F4" s="1">
-        <v>18.866062542244155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27.471532085348784</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22.441519069844826</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6.8588915195434312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -586,19 +617,25 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>31.021207997899527</v>
+        <v>40.748203488223979</v>
       </c>
       <c r="D5" s="1">
-        <v>25.257571110722814</v>
+        <v>31.387207421586766</v>
       </c>
       <c r="E5" s="1">
-        <v>20.024202205558154</v>
+        <v>35.506977358687898</v>
       </c>
       <c r="F5" s="1">
-        <v>20.929451549896264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30.818330122645268</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25.354915042047192</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14.431143705203091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -606,19 +643,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>20.227553903132197</v>
+        <v>32.850817508096824</v>
       </c>
       <c r="D6" s="1">
-        <v>11.751569766023218</v>
+        <v>29.799793813831226</v>
       </c>
       <c r="E6" s="1">
-        <v>15.079576801892294</v>
+        <v>19.445452406463911</v>
       </c>
       <c r="F6" s="1">
-        <v>13.109499254454432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.499250817326601</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17.844237897241008</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12.400745659086329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -626,19 +669,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>20.581555232351057</v>
+        <v>30.104787072298414</v>
       </c>
       <c r="D7" s="1">
-        <v>8.249845594711525</v>
+        <v>28.096932771432357</v>
       </c>
       <c r="E7" s="1">
-        <v>12.398852102618635</v>
+        <v>17.196896141301053</v>
       </c>
       <c r="F7" s="1">
-        <v>22.43122955376554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22.813762195782857</v>
+      </c>
+      <c r="G7" s="1">
+        <v>14.962805993714092</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.3605831775632602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -646,19 +695,25 @@
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>21.289257949146062</v>
+        <v>28.635229401230365</v>
       </c>
       <c r="D8" s="1">
-        <v>15.490418259100156</v>
+        <v>26.590483624751485</v>
       </c>
       <c r="E8" s="1">
-        <v>14.601483067697469</v>
+        <v>21.015355134902659</v>
       </c>
       <c r="F8" s="1">
-        <v>4.6735216383982774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27.813434466386258</v>
+      </c>
+      <c r="G8" s="1">
+        <v>19.759073167436906</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -666,19 +721,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>25.229147078992263</v>
+        <v>23.08230864333003</v>
       </c>
       <c r="D9" s="1">
-        <v>17.103405267613017</v>
+        <v>29.5276412029101</v>
       </c>
       <c r="E9" s="1">
-        <v>2.9762295864205992</v>
+        <v>17.06787920879761</v>
       </c>
       <c r="F9" s="1">
-        <v>9.5392344556280442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.872217312646338</v>
+      </c>
+      <c r="G9" s="1">
+        <v>16.343089083906637</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.8567973611445296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -686,19 +747,25 @@
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>31.226601139530693</v>
+        <v>39.357051700787672</v>
       </c>
       <c r="D10" s="1">
-        <v>22.27631391737728</v>
+        <v>31.153988223490749</v>
       </c>
       <c r="E10" s="1">
-        <v>17.321622229577862</v>
+        <v>20.377739852596623</v>
       </c>
       <c r="F10" s="1">
-        <v>13.040945686438112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20.703822365803816</v>
+      </c>
+      <c r="G10" s="1">
+        <v>26.09214663726242</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14.665266536118178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -706,19 +773,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>41.907682488049304</v>
+        <v>42.893985806737469</v>
       </c>
       <c r="D11" s="1">
-        <v>21.668178837863248</v>
+        <v>33.918672772832466</v>
       </c>
       <c r="E11" s="1">
-        <v>26.615167896960521</v>
+        <v>28.964683919959217</v>
       </c>
       <c r="F11" s="1">
-        <v>21.129783540358027</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24.929260168029217</v>
+      </c>
+      <c r="G11" s="1">
+        <v>27.353491851680655</v>
+      </c>
+      <c r="H11" s="1">
+        <v>21.11445498922123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -726,19 +799,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>35.323286707757312</v>
+        <v>43.392155709989119</v>
       </c>
       <c r="D12" s="1">
-        <v>23.521183625347089</v>
+        <v>32.432454396385985</v>
       </c>
       <c r="E12" s="1">
-        <v>10.911198879129717</v>
+        <v>20.088453920955807</v>
       </c>
       <c r="F12" s="1">
-        <v>15.512597164641988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21.467653492743359</v>
+      </c>
+      <c r="G12" s="1">
+        <v>23.329035443373144</v>
+      </c>
+      <c r="H12" s="1">
+        <v>17.730175986839452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -746,19 +825,25 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>31.578219034069662</v>
+        <v>37.748395082118805</v>
       </c>
       <c r="D13" s="1">
-        <v>22.016432914693159</v>
+        <v>35.247739300569542</v>
       </c>
       <c r="E13" s="1">
-        <v>15.062041253277323</v>
+        <v>28.317108791056199</v>
       </c>
       <c r="F13" s="1">
-        <v>13.920737355846171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28.159287801596978</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25.89727611331503</v>
+      </c>
+      <c r="H13" s="1">
+        <v>11.239259076801732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -766,19 +851,25 @@
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>36.357238889611061</v>
+        <v>53.484300594761599</v>
       </c>
       <c r="D14" s="1">
-        <v>29.981779562552255</v>
+        <v>41.289753608122716</v>
       </c>
       <c r="E14" s="1">
-        <v>29.592674463861194</v>
+        <v>32.361406677767128</v>
       </c>
       <c r="F14" s="1">
-        <v>18.641156611845528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28.501271583924922</v>
+      </c>
+      <c r="G14" s="1">
+        <v>27.039549177314484</v>
+      </c>
+      <c r="H14" s="1">
+        <v>27.656503481532035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -786,19 +877,25 @@
         <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>43.866237967615994</v>
+        <v>56.696508500079396</v>
       </c>
       <c r="D15" s="1">
-        <v>29.512021578158453</v>
+        <v>38.445413348019947</v>
       </c>
       <c r="E15" s="1">
-        <v>30.809709053475068</v>
+        <v>34.276945492886021</v>
       </c>
       <c r="F15" s="1">
-        <v>24.392462518866918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31.052315410640865</v>
+      </c>
+      <c r="G15" s="1">
+        <v>29.72146676873319</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20.591695634254965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -806,19 +903,25 @@
         <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>40.629413071901517</v>
+        <v>52.421673978879895</v>
       </c>
       <c r="D16" s="1">
-        <v>28.180239071732146</v>
+        <v>47.970991834871121</v>
       </c>
       <c r="E16" s="1">
-        <v>25.76534515337584</v>
+        <v>37.638844215368849</v>
       </c>
       <c r="F16" s="1">
-        <v>14.443072117557421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.403623177005478</v>
+      </c>
+      <c r="G16" s="1">
+        <v>29.989718294558251</v>
+      </c>
+      <c r="H16" s="1">
+        <v>25.497293354732093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -826,19 +929,25 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>48.266239799097711</v>
+        <v>51.938911708540417</v>
       </c>
       <c r="D17" s="1">
-        <v>33.650986051057004</v>
+        <v>50.147338619170469</v>
       </c>
       <c r="E17" s="1">
-        <v>30.651060103944459</v>
+        <v>34.147527656978355</v>
       </c>
       <c r="F17" s="1">
-        <v>17.430445783837051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.701559709624817</v>
+      </c>
+      <c r="G17" s="1">
+        <v>24.237549698417823</v>
+      </c>
+      <c r="H17" s="1">
+        <v>25.244131631928635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -846,19 +955,25 @@
         <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>46.668824195521942</v>
+        <v>56.559542827961025</v>
       </c>
       <c r="D18" s="1">
-        <v>44.177297041298665</v>
+        <v>45.735757301275136</v>
       </c>
       <c r="E18" s="1">
-        <v>33.906671362696649</v>
+        <v>44.523634336816258</v>
       </c>
       <c r="F18" s="1">
-        <v>28.581991878935895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38.032029269008362</v>
+      </c>
+      <c r="G18" s="1">
+        <v>21.744963461231272</v>
+      </c>
+      <c r="H18" s="1">
+        <v>30.428511085338027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -866,19 +981,25 @@
         <v>5</v>
       </c>
       <c r="C19" s="1">
-        <v>47.683360640135199</v>
+        <v>61.172493335572071</v>
       </c>
       <c r="D19" s="1">
-        <v>44.491870244886378</v>
+        <v>52.297052718553942</v>
       </c>
       <c r="E19" s="1">
-        <v>28.698578577225071</v>
+        <v>41.74383999006632</v>
       </c>
       <c r="F19" s="1">
-        <v>23.251287695779926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30.632030437822515</v>
+      </c>
+      <c r="G19" s="1">
+        <v>32.570728267146833</v>
+      </c>
+      <c r="H19" s="1">
+        <v>38.628104617199291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -886,19 +1007,25 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <v>40.300206147790618</v>
+        <v>51.60772905266969</v>
       </c>
       <c r="D20" s="1">
-        <v>38.852423856422234</v>
+        <v>51.461527349619743</v>
       </c>
       <c r="E20" s="1">
-        <v>34.330645738730702</v>
+        <v>39.851135373198296</v>
       </c>
       <c r="F20" s="1">
-        <v>21.41275324012669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30.064171126205295</v>
+      </c>
+      <c r="G20" s="1">
+        <v>31.117634270139632</v>
+      </c>
+      <c r="H20" s="1">
+        <v>30.697467791372308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -906,19 +1033,25 @@
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <v>50.377748007036168</v>
+        <v>52.71807611271543</v>
       </c>
       <c r="D21" s="1">
-        <v>34.184792637940134</v>
+        <v>48.938464304261984</v>
       </c>
       <c r="E21" s="1">
-        <v>33.061246265393351</v>
+        <v>34.360266808952311</v>
       </c>
       <c r="F21" s="1">
-        <v>26.210467519477344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39.936504921275699</v>
+      </c>
+      <c r="G21" s="1">
+        <v>21.518404800258196</v>
+      </c>
+      <c r="H21" s="1">
+        <v>39.147970038397226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -926,19 +1059,25 @@
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>38.792168401561987</v>
+        <v>57.355711847492337</v>
       </c>
       <c r="D22" s="1">
-        <v>42.397076326926275</v>
+        <v>45.666409299262106</v>
       </c>
       <c r="E22" s="1">
-        <v>33.77808236506371</v>
+        <v>40.972710249538835</v>
       </c>
       <c r="F22" s="1">
-        <v>19.787384125485815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38.798808597926325</v>
+      </c>
+      <c r="G22" s="1">
+        <v>35.715964464943134</v>
+      </c>
+      <c r="H22" s="1">
+        <v>33.149343214878066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -946,19 +1085,25 @@
         <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>46.279936178900215</v>
+        <v>45.059530125732657</v>
       </c>
       <c r="D23" s="1">
-        <v>31.849054790039304</v>
+        <v>52.160733697055683</v>
       </c>
       <c r="E23" s="1">
-        <v>29.870015593212074</v>
+        <v>34.093269250370341</v>
       </c>
       <c r="F23" s="1">
-        <v>21.358104495209627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.161324243099273</v>
+      </c>
+      <c r="G23" s="1">
+        <v>28.973073549467912</v>
+      </c>
+      <c r="H23" s="1">
+        <v>30.133293550923323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -966,19 +1111,25 @@
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>41.426627448912576</v>
+        <v>54.786351426242305</v>
       </c>
       <c r="D24" s="1">
-        <v>39.676862807341791</v>
+        <v>49.94541407833561</v>
       </c>
       <c r="E24" s="1">
-        <v>27.65703784852743</v>
+        <v>26.522825302005955</v>
       </c>
       <c r="F24" s="1">
-        <v>27.435926237770175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.771540433376799</v>
+      </c>
+      <c r="G24" s="1">
+        <v>27.888336036106399</v>
+      </c>
+      <c r="H24" s="1">
+        <v>34.529640680052161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -986,16 +1137,22 @@
         <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>36.184031629129493</v>
+        <v>61.522846575150439</v>
       </c>
       <c r="D25" s="1">
-        <v>36.480548956965968</v>
+        <v>53.440819019664119</v>
       </c>
       <c r="E25" s="1">
-        <v>30.102795046605763</v>
+        <v>42.296542607613645</v>
       </c>
       <c r="F25" s="1">
-        <v>31.283720263870531</v>
+        <v>35.558743887874066</v>
+      </c>
+      <c r="G25" s="1">
+        <v>25.012780599015191</v>
+      </c>
+      <c r="H25" s="1">
+        <v>30.506422051015029</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93684EAA-25F2-F742-A6D5-E3E1BEE5DA1D}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8:I17"/>
     </sheetView>
   </sheetViews>

--- a/data/fleas_complex_data.xlsx
+++ b/data/fleas_complex_data.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5F2AB-CB8C-BB45-B879-DBCB85EFDC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48805D4-8D51-654A-BB34-0755D3296D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="1580" windowWidth="30380" windowHeight="15800" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
-    <sheet name="repeated" sheetId="1" r:id="rId1"/>
-    <sheet name="mixed" sheetId="4" r:id="rId2"/>
-    <sheet name="fac4" sheetId="2" r:id="rId3"/>
-    <sheet name="covariate" sheetId="3" r:id="rId4"/>
+    <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
+    <sheet name="mixed-fac3" sheetId="1" r:id="rId2"/>
+    <sheet name="repeated-fac1" sheetId="9" r:id="rId3"/>
+    <sheet name="repeated-fac2" sheetId="8" r:id="rId4"/>
+    <sheet name="repeated-fac3" sheetId="6" r:id="rId5"/>
+    <sheet name="fac4" sheetId="2" r:id="rId6"/>
+    <sheet name="covariate" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="29">
   <si>
     <t>animal</t>
   </si>
@@ -98,16 +101,34 @@
     <t>winter</t>
   </si>
   <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
     <t>t4</t>
   </si>
   <si>
     <t>t5</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>feeding</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>workout</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -153,11 +174,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -492,671 +512,1410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDDEF0-8AF1-4F45-97DB-B027737E21A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A3226C-54DC-B848-8696-B223120F0E3A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31.55909096985193</v>
+      </c>
+      <c r="D2" s="3">
+        <v>27.606665896679409</v>
+      </c>
+      <c r="E2" s="3">
+        <v>26.115928747587045</v>
+      </c>
+      <c r="F2" s="3">
+        <v>17.659919460691828</v>
+      </c>
+      <c r="G2" s="3">
+        <v>18.33128508561088</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7.4305697069207852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32.866209284144198</v>
+      </c>
+      <c r="D3" s="3">
+        <v>26.121987372056815</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28.232668158980804</v>
+      </c>
+      <c r="F3" s="3">
+        <v>19.252727997906209</v>
+      </c>
+      <c r="G3" s="3">
+        <v>12.005854362609675</v>
+      </c>
+      <c r="H3" s="3">
+        <v>8.753625648876513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>33.432849009694017</v>
+      </c>
+      <c r="D4" s="3">
+        <v>31.22553105435059</v>
+      </c>
+      <c r="E4" s="3">
+        <v>26.589447946572463</v>
+      </c>
+      <c r="F4" s="3">
+        <v>24.192980399028265</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13.953989628116979</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.26637802765024432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24.876463684780553</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30.474276458411257</v>
+      </c>
+      <c r="E5" s="3">
+        <v>26.821582004821938</v>
+      </c>
+      <c r="F5" s="3">
+        <v>23.765871226134749</v>
+      </c>
+      <c r="G5" s="3">
+        <v>20.711365757585231</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.3442855221283687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36.646511040330537</v>
+      </c>
+      <c r="D6" s="3">
+        <v>36.467928006483888</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22.499648738651363</v>
+      </c>
+      <c r="F6" s="3">
+        <v>26.713647200484708</v>
+      </c>
+      <c r="G6" s="3">
+        <v>16.685861224159165</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10.304877072493666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>32.043459192171476</v>
+      </c>
+      <c r="D7" s="3">
+        <v>29.76499003591276</v>
+      </c>
+      <c r="E7" s="3">
+        <v>22.824195614545143</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18.168776169645103</v>
+      </c>
+      <c r="G7" s="3">
+        <v>23.819044352474062</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6.4734529030777921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>37.558136560980046</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23.627520596759236</v>
+      </c>
+      <c r="E8" s="3">
+        <v>27.193017184017471</v>
+      </c>
+      <c r="F8" s="3">
+        <v>24.765497286227351</v>
+      </c>
+      <c r="G8" s="3">
+        <v>20.793407319256719</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.5839307724571698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>31.085848999852832</v>
+      </c>
+      <c r="D9" s="3">
+        <v>23.055216571316322</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16.734636963102254</v>
+      </c>
+      <c r="F9" s="3">
+        <v>20.295214781995281</v>
+      </c>
+      <c r="G9" s="3">
+        <v>23.888921614972752</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2.7713012496102705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>33.279296925928115</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25.816687443516216</v>
+      </c>
+      <c r="E10" s="3">
+        <v>33.761121822321073</v>
+      </c>
+      <c r="F10" s="3">
+        <v>16.969139402205066</v>
+      </c>
+      <c r="G10" s="3">
+        <v>26.292054432937302</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12.046581022838474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>36.712452232886541</v>
+      </c>
+      <c r="D11" s="3">
+        <v>32.662010648043427</v>
+      </c>
+      <c r="E11" s="3">
+        <v>29.327384747167201</v>
+      </c>
+      <c r="F11" s="3">
+        <v>25.659429663791698</v>
+      </c>
+      <c r="G11" s="3">
+        <v>12.786449078164154</v>
+      </c>
+      <c r="H11" s="3">
+        <v>15.948982881499973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43.495061112235121</v>
+      </c>
+      <c r="D12" s="3">
+        <v>23.544297937071018</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21.488775919114627</v>
+      </c>
+      <c r="F12" s="3">
+        <v>19.439816893927652</v>
+      </c>
+      <c r="G12" s="3">
+        <v>17.390644028406136</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15.422656933411023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>40.496581599158958</v>
+      </c>
+      <c r="D13" s="3">
+        <v>26.700358482890195</v>
+      </c>
+      <c r="E13" s="3">
+        <v>21.206677520613685</v>
+      </c>
+      <c r="F13" s="3">
+        <v>13.798695649667561</v>
+      </c>
+      <c r="G13" s="3">
+        <v>23.679127910277462</v>
+      </c>
+      <c r="H13" s="3">
+        <v>15.361114026642213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38.905618598431744</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29.374426628882606</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20.177383351943178</v>
+      </c>
+      <c r="F14" s="3">
+        <v>16.266286157305867</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18.143414089263668</v>
+      </c>
+      <c r="H14" s="3">
+        <v>22.192211551433122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>39.368968051581653</v>
+      </c>
+      <c r="D15" s="3">
+        <v>32.117970311762726</v>
+      </c>
+      <c r="E15" s="3">
+        <v>32.582014119606278</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12.632422821352373</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20.992017730682658</v>
+      </c>
+      <c r="H15" s="3">
+        <v>18.206585404976892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>42.72986984332902</v>
+      </c>
+      <c r="D16" s="3">
+        <v>28.277865519598166</v>
+      </c>
+      <c r="E16" s="3">
+        <v>23.284224665612946</v>
+      </c>
+      <c r="F16" s="3">
+        <v>24.209292163104365</v>
+      </c>
+      <c r="G16" s="3">
+        <v>21.504915932897475</v>
+      </c>
+      <c r="H16" s="3">
+        <v>24.736381139787575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45.580898439008102</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30.722354650100996</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20.05710793903668</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15.518803507957969</v>
+      </c>
+      <c r="G17" s="3">
+        <v>21.222253297425041</v>
+      </c>
+      <c r="H17" s="3">
+        <v>14.887367970897088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>56.355622953897807</v>
+      </c>
+      <c r="D18" s="3">
+        <v>48.57302897797787</v>
+      </c>
+      <c r="E18" s="3">
+        <v>28.941450847456395</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30.688447871877113</v>
+      </c>
+      <c r="G18" s="3">
+        <v>30.448642727706606</v>
+      </c>
+      <c r="H18" s="3">
+        <v>35.862240443452023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>49.008252052401318</v>
+      </c>
+      <c r="D19" s="3">
+        <v>41.297392313122302</v>
+      </c>
+      <c r="E19" s="3">
+        <v>36.445917298007025</v>
+      </c>
+      <c r="F19" s="3">
+        <v>26.834520384682346</v>
+      </c>
+      <c r="G19" s="3">
+        <v>24.143327713246091</v>
+      </c>
+      <c r="H19" s="3">
+        <v>24.895566404314533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>51.340906975770672</v>
+      </c>
+      <c r="D20" s="3">
+        <v>42.455887403500448</v>
+      </c>
+      <c r="E20" s="3">
+        <v>37.918409066955817</v>
+      </c>
+      <c r="F20" s="3">
+        <v>31.007296729115843</v>
+      </c>
+      <c r="G20" s="3">
+        <v>29.463189823570314</v>
+      </c>
+      <c r="H20" s="3">
+        <v>27.3539523872881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>47.686428668014393</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44.38875800807061</v>
+      </c>
+      <c r="E21" s="3">
+        <v>34.864530808286865</v>
+      </c>
+      <c r="F21" s="3">
+        <v>27.539629572577301</v>
+      </c>
+      <c r="G21" s="3">
+        <v>29.914753545724672</v>
+      </c>
+      <c r="H21" s="3">
+        <v>31.365791838765894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>48.677476836738826</v>
+      </c>
+      <c r="D22" s="3">
+        <v>47.27730593078595</v>
+      </c>
+      <c r="E22" s="3">
+        <v>33.810992287189855</v>
+      </c>
+      <c r="F22" s="3">
+        <v>21.89308719302575</v>
+      </c>
+      <c r="G22" s="3">
+        <v>27.596491998417534</v>
+      </c>
+      <c r="H22" s="3">
+        <v>33.836146940540047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>51.556787678369957</v>
+      </c>
+      <c r="D23" s="3">
+        <v>49.850748351664159</v>
+      </c>
+      <c r="E23" s="3">
+        <v>37.171805282830846</v>
+      </c>
+      <c r="F23" s="3">
+        <v>30.662873406411411</v>
+      </c>
+      <c r="G23" s="3">
+        <v>27.666419322604792</v>
+      </c>
+      <c r="H23" s="3">
+        <v>35.029665793441602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>53.505893911308149</v>
+      </c>
+      <c r="D24" s="3">
+        <v>47.595860609685104</v>
+      </c>
+      <c r="E24" s="3">
+        <v>33.305239466277513</v>
+      </c>
+      <c r="F24" s="3">
+        <v>30.458551402630611</v>
+      </c>
+      <c r="G24" s="3">
+        <v>25.32049177440275</v>
+      </c>
+      <c r="H24" s="3">
+        <v>28.314078873800646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>49.383727465385135</v>
+      </c>
+      <c r="D25" s="3">
+        <v>42.846568914777407</v>
+      </c>
+      <c r="E25" s="3">
+        <v>31.994764027729044</v>
+      </c>
+      <c r="F25" s="3">
+        <v>34.093412840497756</v>
+      </c>
+      <c r="G25" s="3">
+        <v>27.104435404373898</v>
+      </c>
+      <c r="H25" s="3">
+        <v>34.812657757557204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDDEF0-8AF1-4F45-97DB-B027737E21A4}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44.499943972196249</v>
+      </c>
+      <c r="E2" s="1">
+        <v>32.401772146652419</v>
+      </c>
+      <c r="F2" s="1">
+        <v>33.020247329034618</v>
+      </c>
+      <c r="G2" s="1">
+        <v>18.13661804237006</v>
+      </c>
+      <c r="H2" s="1">
+        <v>20.876807106650496</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10.776895688359973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>36.334869020294349</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37.047319551470942</v>
+      </c>
+      <c r="F3" s="1">
+        <v>31.785615299966331</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25.717154955246958</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28.010264974406837</v>
+      </c>
+      <c r="I3" s="1">
+        <v>8.7874403917324333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31.758525384116222</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31.748163386299648</v>
+      </c>
+      <c r="F4" s="1">
+        <v>29.817982915702103</v>
+      </c>
+      <c r="G4" s="1">
+        <v>26.387047159549791</v>
+      </c>
+      <c r="H4" s="1">
+        <v>27.400990082989061</v>
+      </c>
+      <c r="I4" s="1">
+        <v>15.524880844436835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>38.284151113048139</v>
+      </c>
+      <c r="E5" s="1">
+        <v>37.081014200697005</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30.53053942701888</v>
+      </c>
+      <c r="G5" s="1">
+        <v>27.801231338007867</v>
+      </c>
+      <c r="H5" s="1">
+        <v>28.374138572264684</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.2145624756011086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>28.869735744078159</v>
+      </c>
+      <c r="E6" s="1">
+        <v>31.816675124445215</v>
+      </c>
+      <c r="F6" s="1">
+        <v>24.299517735761306</v>
+      </c>
+      <c r="G6" s="1">
+        <v>22.621503706575144</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18.00297384052211</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.4881950915549478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>36.137240443322867</v>
+      </c>
+      <c r="E7" s="1">
+        <v>31.540034620792557</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19.649933312842421</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15.919610255800055</v>
+      </c>
+      <c r="H7" s="1">
+        <v>18.2869340095287</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.4212733708023952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32.083315321740386</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30.744861605846552</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25.448890901031589</v>
+      </c>
+      <c r="G8" s="1">
+        <v>24.271919459441783</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14.805157984016116</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7.9003272191565905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36.527740552545794</v>
+      </c>
+      <c r="E9" s="1">
+        <v>22.753116719805814</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16.98032954115908</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13.247803326766991</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13.680130482974283</v>
+      </c>
+      <c r="I9" s="1">
+        <v>11.289933270701916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42.585494352024313</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29.453434095247175</v>
+      </c>
+      <c r="F10" s="1">
+        <v>18.130428276007855</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23.392115023688707</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16.002343179490985</v>
+      </c>
+      <c r="I10" s="1">
+        <v>19.343372746470251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44.41005345026273</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32.087092262673394</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27.140550427577335</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25.625129411841094</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25.588355483993116</v>
+      </c>
+      <c r="I11" s="1">
+        <v>14.991355099068667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48.41331662210473</v>
+      </c>
+      <c r="E12" s="1">
+        <v>28.829706390300945</v>
+      </c>
+      <c r="F12" s="1">
+        <v>27.173381236516555</v>
+      </c>
+      <c r="G12" s="1">
+        <v>24.796480905115374</v>
+      </c>
+      <c r="H12" s="1">
+        <v>27.239478068184706</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20.691470247717096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>48.733201092729722</v>
+      </c>
+      <c r="E13" s="1">
+        <v>35.605545645024975</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30.102006526409856</v>
+      </c>
+      <c r="G13" s="1">
+        <v>26.502451214662074</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17.520990002060849</v>
+      </c>
+      <c r="I13" s="1">
+        <v>18.760945747041198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>55.193431462386009</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43.790262253219915</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42.791651418224447</v>
+      </c>
+      <c r="G14" s="1">
+        <v>36.201222204933359</v>
+      </c>
+      <c r="H14" s="1">
+        <v>33.385529590301068</v>
+      </c>
+      <c r="I14" s="1">
+        <v>27.173273627538308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>47.265406433777571</v>
+      </c>
+      <c r="E15" s="1">
+        <v>47.823913400277775</v>
+      </c>
+      <c r="F15" s="1">
+        <v>32.852233149963304</v>
+      </c>
+      <c r="G15" s="1">
+        <v>33.285610294049434</v>
+      </c>
+      <c r="H15" s="1">
+        <v>41.357094783268252</v>
+      </c>
+      <c r="I15" s="1">
+        <v>32.491617023562739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>54.027370468247028</v>
+      </c>
+      <c r="E16" s="1">
+        <v>48.301579381810917</v>
+      </c>
+      <c r="F16" s="1">
+        <v>29.594563201582652</v>
+      </c>
+      <c r="G16" s="1">
+        <v>34.245274596440545</v>
+      </c>
+      <c r="H16" s="1">
+        <v>35.161452953112018</v>
+      </c>
+      <c r="I16" s="1">
+        <v>25.322525234120171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>52.719505287755197</v>
+      </c>
+      <c r="E17" s="1">
+        <v>46.077660436574085</v>
+      </c>
+      <c r="F17" s="1">
+        <v>39.397152753387672</v>
+      </c>
+      <c r="G17" s="1">
+        <v>26.948254915365382</v>
+      </c>
+      <c r="H17" s="1">
+        <v>27.27113953184352</v>
+      </c>
+      <c r="I17" s="1">
+        <v>31.848170978422296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>51.56831280412144</v>
+      </c>
+      <c r="E18" s="1">
+        <v>52.596564134084147</v>
+      </c>
+      <c r="F18" s="1">
+        <v>36.310605831728502</v>
+      </c>
+      <c r="G18" s="1">
+        <v>34.61100343119351</v>
+      </c>
+      <c r="H18" s="1">
+        <v>34.701682546632497</v>
+      </c>
+      <c r="I18" s="1">
+        <v>34.500579548667432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>54.433383327908885</v>
+      </c>
+      <c r="E19" s="1">
+        <v>49.20010082777813</v>
+      </c>
+      <c r="F19" s="1">
+        <v>35.353441371685633</v>
+      </c>
+      <c r="G19" s="1">
+        <v>26.476146649552792</v>
+      </c>
+      <c r="H19" s="1">
+        <v>31.899736374697291</v>
+      </c>
+      <c r="I19" s="1">
+        <v>35.565235160780929</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>61.268751298695534</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38.205701227863244</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41.390791730947655</v>
+      </c>
+      <c r="G20" s="1">
+        <v>33.242449141359252</v>
+      </c>
+      <c r="H20" s="1">
+        <v>32.478877077981586</v>
+      </c>
+      <c r="I20" s="1">
+        <v>31.761892748848133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>58.44493053393748</v>
+      </c>
+      <c r="E21" s="1">
+        <v>49.356332964437591</v>
+      </c>
+      <c r="F21" s="1">
+        <v>34.578461968537304</v>
+      </c>
+      <c r="G21" s="1">
+        <v>34.388440392282241</v>
+      </c>
+      <c r="H21" s="1">
+        <v>30.610442714105748</v>
+      </c>
+      <c r="I21" s="1">
+        <v>39.61588233650955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>59.116419344625456</v>
+      </c>
+      <c r="E22" s="1">
+        <v>51.659020589791062</v>
+      </c>
+      <c r="F22" s="1">
+        <v>35.6448203430161</v>
+      </c>
+      <c r="G22" s="1">
+        <v>39.555070425804068</v>
+      </c>
+      <c r="H22" s="1">
+        <v>27.769546395199697</v>
+      </c>
+      <c r="I22" s="1">
+        <v>32.882137912270167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>36.559111045336067</v>
-      </c>
-      <c r="D2" s="1">
-        <v>33.766670769426696</v>
-      </c>
-      <c r="E2" s="1">
-        <v>29.231343263436646</v>
-      </c>
-      <c r="F2" s="1">
-        <v>22.850508415913083</v>
-      </c>
-      <c r="G2" s="1">
-        <v>26.499480669880292</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6.0721095997479999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>31.499684014932832</v>
-      </c>
-      <c r="D3" s="1">
-        <v>27.106400935014747</v>
-      </c>
-      <c r="E3" s="1">
-        <v>31.692958034076426</v>
-      </c>
-      <c r="F3" s="1">
-        <v>33.644456160833599</v>
-      </c>
-      <c r="G3" s="1">
-        <v>21.828505318539946</v>
-      </c>
-      <c r="H3" s="1">
-        <v>17.046843978252003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>39.148817727461676</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35.100624364113031</v>
-      </c>
-      <c r="E4" s="1">
-        <v>27.344980900306638</v>
-      </c>
-      <c r="F4" s="1">
-        <v>27.471532085348784</v>
-      </c>
-      <c r="G4" s="1">
-        <v>22.441519069844826</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6.8588915195434312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40.748203488223979</v>
-      </c>
-      <c r="D5" s="1">
-        <v>31.387207421586766</v>
-      </c>
-      <c r="E5" s="1">
-        <v>35.506977358687898</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30.818330122645268</v>
-      </c>
-      <c r="G5" s="1">
-        <v>25.354915042047192</v>
-      </c>
-      <c r="H5" s="1">
-        <v>14.431143705203091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>32.850817508096824</v>
-      </c>
-      <c r="D6" s="1">
-        <v>29.799793813831226</v>
-      </c>
-      <c r="E6" s="1">
-        <v>19.445452406463911</v>
-      </c>
-      <c r="F6" s="1">
-        <v>18.499250817326601</v>
-      </c>
-      <c r="G6" s="1">
-        <v>17.844237897241008</v>
-      </c>
-      <c r="H6" s="1">
-        <v>12.400745659086329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>30.104787072298414</v>
-      </c>
-      <c r="D7" s="1">
-        <v>28.096932771432357</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17.196896141301053</v>
-      </c>
-      <c r="F7" s="1">
-        <v>22.813762195782857</v>
-      </c>
-      <c r="G7" s="1">
-        <v>14.962805993714092</v>
-      </c>
-      <c r="H7" s="1">
-        <v>8.3605831775632602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>28.635229401230365</v>
-      </c>
-      <c r="D8" s="1">
-        <v>26.590483624751485</v>
-      </c>
-      <c r="E8" s="1">
-        <v>21.015355134902659</v>
-      </c>
-      <c r="F8" s="1">
-        <v>27.813434466386258</v>
-      </c>
-      <c r="G8" s="1">
-        <v>19.759073167436906</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>23.08230864333003</v>
-      </c>
-      <c r="D9" s="1">
-        <v>29.5276412029101</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17.06787920879761</v>
-      </c>
-      <c r="F9" s="1">
-        <v>15.872217312646338</v>
-      </c>
-      <c r="G9" s="1">
-        <v>16.343089083906637</v>
-      </c>
-      <c r="H9" s="1">
-        <v>6.8567973611445296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>39.357051700787672</v>
-      </c>
-      <c r="D10" s="1">
-        <v>31.153988223490749</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20.377739852596623</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20.703822365803816</v>
-      </c>
-      <c r="G10" s="1">
-        <v>26.09214663726242</v>
-      </c>
-      <c r="H10" s="1">
-        <v>14.665266536118178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>42.893985806737469</v>
-      </c>
-      <c r="D11" s="1">
-        <v>33.918672772832466</v>
-      </c>
-      <c r="E11" s="1">
-        <v>28.964683919959217</v>
-      </c>
-      <c r="F11" s="1">
-        <v>24.929260168029217</v>
-      </c>
-      <c r="G11" s="1">
-        <v>27.353491851680655</v>
-      </c>
-      <c r="H11" s="1">
-        <v>21.11445498922123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43.392155709989119</v>
-      </c>
-      <c r="D12" s="1">
-        <v>32.432454396385985</v>
-      </c>
-      <c r="E12" s="1">
-        <v>20.088453920955807</v>
-      </c>
-      <c r="F12" s="1">
-        <v>21.467653492743359</v>
-      </c>
-      <c r="G12" s="1">
-        <v>23.329035443373144</v>
-      </c>
-      <c r="H12" s="1">
-        <v>17.730175986839452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>37.748395082118805</v>
-      </c>
-      <c r="D13" s="1">
-        <v>35.247739300569542</v>
-      </c>
-      <c r="E13" s="1">
-        <v>28.317108791056199</v>
-      </c>
-      <c r="F13" s="1">
-        <v>28.159287801596978</v>
-      </c>
-      <c r="G13" s="1">
-        <v>25.89727611331503</v>
-      </c>
-      <c r="H13" s="1">
-        <v>11.239259076801732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>53.484300594761599</v>
-      </c>
-      <c r="D14" s="1">
-        <v>41.289753608122716</v>
-      </c>
-      <c r="E14" s="1">
-        <v>32.361406677767128</v>
-      </c>
-      <c r="F14" s="1">
-        <v>28.501271583924922</v>
-      </c>
-      <c r="G14" s="1">
-        <v>27.039549177314484</v>
-      </c>
-      <c r="H14" s="1">
-        <v>27.656503481532035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>56.696508500079396</v>
-      </c>
-      <c r="D15" s="1">
-        <v>38.445413348019947</v>
-      </c>
-      <c r="E15" s="1">
-        <v>34.276945492886021</v>
-      </c>
-      <c r="F15" s="1">
-        <v>31.052315410640865</v>
-      </c>
-      <c r="G15" s="1">
-        <v>29.72146676873319</v>
-      </c>
-      <c r="H15" s="1">
-        <v>20.591695634254965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>52.421673978879895</v>
-      </c>
-      <c r="D16" s="1">
-        <v>47.970991834871121</v>
-      </c>
-      <c r="E16" s="1">
-        <v>37.638844215368849</v>
-      </c>
-      <c r="F16" s="1">
-        <v>26.403623177005478</v>
-      </c>
-      <c r="G16" s="1">
-        <v>29.989718294558251</v>
-      </c>
-      <c r="H16" s="1">
-        <v>25.497293354732093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>51.938911708540417</v>
-      </c>
-      <c r="D17" s="1">
-        <v>50.147338619170469</v>
-      </c>
-      <c r="E17" s="1">
-        <v>34.147527656978355</v>
-      </c>
-      <c r="F17" s="1">
-        <v>33.701559709624817</v>
-      </c>
-      <c r="G17" s="1">
-        <v>24.237549698417823</v>
-      </c>
-      <c r="H17" s="1">
-        <v>25.244131631928635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>56.559542827961025</v>
-      </c>
-      <c r="D18" s="1">
-        <v>45.735757301275136</v>
-      </c>
-      <c r="E18" s="1">
-        <v>44.523634336816258</v>
-      </c>
-      <c r="F18" s="1">
-        <v>38.032029269008362</v>
-      </c>
-      <c r="G18" s="1">
-        <v>21.744963461231272</v>
-      </c>
-      <c r="H18" s="1">
-        <v>30.428511085338027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>61.172493335572071</v>
-      </c>
-      <c r="D19" s="1">
-        <v>52.297052718553942</v>
-      </c>
-      <c r="E19" s="1">
-        <v>41.74383999006632</v>
-      </c>
-      <c r="F19" s="1">
-        <v>30.632030437822515</v>
-      </c>
-      <c r="G19" s="1">
-        <v>32.570728267146833</v>
-      </c>
-      <c r="H19" s="1">
-        <v>38.628104617199291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>51.60772905266969</v>
-      </c>
-      <c r="D20" s="1">
-        <v>51.461527349619743</v>
-      </c>
-      <c r="E20" s="1">
-        <v>39.851135373198296</v>
-      </c>
-      <c r="F20" s="1">
-        <v>30.064171126205295</v>
-      </c>
-      <c r="G20" s="1">
-        <v>31.117634270139632</v>
-      </c>
-      <c r="H20" s="1">
-        <v>30.697467791372308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>52.71807611271543</v>
-      </c>
-      <c r="D21" s="1">
-        <v>48.938464304261984</v>
-      </c>
-      <c r="E21" s="1">
-        <v>34.360266808952311</v>
-      </c>
-      <c r="F21" s="1">
-        <v>39.936504921275699</v>
-      </c>
-      <c r="G21" s="1">
-        <v>21.518404800258196</v>
-      </c>
-      <c r="H21" s="1">
-        <v>39.147970038397226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>57.355711847492337</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45.666409299262106</v>
-      </c>
-      <c r="E22" s="1">
-        <v>40.972710249538835</v>
-      </c>
-      <c r="F22" s="1">
-        <v>38.798808597926325</v>
-      </c>
-      <c r="G22" s="1">
-        <v>35.715964464943134</v>
-      </c>
-      <c r="H22" s="1">
-        <v>33.149343214878066</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
       <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45.059530125732657</v>
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>52.160733697055683</v>
+        <v>53.513020328431729</v>
       </c>
       <c r="E23" s="1">
-        <v>34.093269250370341</v>
+        <v>58.275759284620463</v>
       </c>
       <c r="F23" s="1">
-        <v>33.161324243099273</v>
+        <v>36.650736582127905</v>
       </c>
       <c r="G23" s="1">
-        <v>28.973073549467912</v>
+        <v>34.618722782649392</v>
       </c>
       <c r="H23" s="1">
-        <v>30.133293550923323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>3</v>
+        <v>28.094469715062829</v>
+      </c>
+      <c r="I23" s="1">
+        <v>38.014454572149269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>54.786351426242305</v>
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>49.94541407833561</v>
+        <v>62.224705856577856</v>
       </c>
       <c r="E24" s="1">
-        <v>26.522825302005955</v>
+        <v>48.525480641851395</v>
       </c>
       <c r="F24" s="1">
-        <v>32.771540433376799</v>
+        <v>46.729714230670176</v>
       </c>
       <c r="G24" s="1">
-        <v>27.888336036106399</v>
+        <v>34.805762742593807</v>
       </c>
       <c r="H24" s="1">
-        <v>34.529640680052161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3</v>
+        <v>34.195865265009026</v>
+      </c>
+      <c r="I24" s="1">
+        <v>29.027286669389699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>61.522846575150439</v>
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>53.440819019664119</v>
+        <v>53.395893819722588</v>
       </c>
       <c r="E25" s="1">
-        <v>42.296542607613645</v>
+        <v>52.000035069697987</v>
       </c>
       <c r="F25" s="1">
-        <v>35.558743887874066</v>
+        <v>37.782115931997673</v>
       </c>
       <c r="G25" s="1">
-        <v>25.012780599015191</v>
+        <v>47.774920934427442</v>
       </c>
       <c r="H25" s="1">
-        <v>30.506422051015029</v>
+        <v>35.497975979027842</v>
+      </c>
+      <c r="I25" s="1">
+        <v>27.626933000193588</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
     <sortCondition ref="A2:A26"/>
     <sortCondition ref="B2:B26"/>
   </sortState>
@@ -1164,535 +1923,3073 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93684EAA-25F2-F742-A6D5-E3E1BEE5DA1D}">
-  <dimension ref="A1:H25"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D526819B-5D88-A747-9506-9B0877F4530C}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:I17"/>
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>23.723458657369019</v>
+      </c>
+      <c r="D2" s="1">
+        <v>37.569275647870946</v>
+      </c>
+      <c r="E2" s="1">
+        <v>36.674323761868521</v>
+      </c>
+      <c r="F2" s="1">
+        <v>25.886869954040694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17.84241166384777</v>
+      </c>
+      <c r="D3" s="1">
+        <v>29.356361287968163</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22.633943151921489</v>
+      </c>
+      <c r="F3" s="1">
+        <v>15.442732305238247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24.11201213995853</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30.432619692717239</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29.996444031067696</v>
+      </c>
+      <c r="F4" s="1">
+        <v>28.138644030368841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27.057297862526536</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34.597288087403989</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31.511050946553606</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20.076309660366864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24.358420214506761</v>
+      </c>
+      <c r="D6" s="1">
+        <v>24.220818578268982</v>
+      </c>
+      <c r="E6" s="1">
+        <v>28.086097713275592</v>
+      </c>
+      <c r="F6" s="1">
+        <v>17.930927065441164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23.708143949145089</v>
+      </c>
+      <c r="D7" s="1">
+        <v>26.866028657006041</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24.150804446837775</v>
+      </c>
+      <c r="F7" s="1">
+        <v>23.759552380771243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26.86091446192081</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32.18970237153853</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29.139410282348592</v>
+      </c>
+      <c r="F8" s="1">
+        <v>18.033611878523473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>21.191147005720712</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30.9621471240456</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20.160868644853402</v>
+      </c>
+      <c r="F9" s="1">
+        <v>21.178766116763889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25.222954245530083</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25.709452716567284</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32.094162315050802</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17.919289882529341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28.517381037670081</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32.391183230384591</v>
+      </c>
+      <c r="E11" s="1">
+        <v>33.354653095027686</v>
+      </c>
+      <c r="F11" s="1">
+        <v>23.912565405219173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25.463970649297355</v>
+      </c>
+      <c r="D12" s="1">
+        <v>29.023529002059288</v>
+      </c>
+      <c r="E12" s="1">
+        <v>22.677117038758539</v>
+      </c>
+      <c r="F12" s="1">
+        <v>19.884846915504603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20.922419299580536</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34.386994115168385</v>
+      </c>
+      <c r="E13" s="1">
+        <v>26.810990853984148</v>
+      </c>
+      <c r="F13" s="1">
+        <v>24.763594922808494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865A1CC-14C1-8A4D-9361-F6591CE2AC11}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34.852960602005275</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50.212157098905912</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50.403181754556442</v>
+      </c>
+      <c r="G2" s="1">
+        <v>40.917170041016135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50.371037503913996</v>
+      </c>
+      <c r="E3" s="1">
+        <v>57.872380551721633</v>
+      </c>
+      <c r="F3" s="1">
+        <v>66.840553080035775</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45.448337655567627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
+        <v>51.013187873497195</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44.540305137610098</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42.645892575585748</v>
+      </c>
+      <c r="G4" s="1">
+        <v>38.741927378033999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1">
+        <v>34.241982283957434</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43.852116462636403</v>
+      </c>
+      <c r="F5" s="1">
+        <v>37.341549940613881</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30.915576766896169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46.919003387245894</v>
+      </c>
+      <c r="E6" s="1">
+        <v>60.598236374056718</v>
+      </c>
+      <c r="F6" s="1">
+        <v>55.411745164369776</v>
+      </c>
+      <c r="G6" s="1">
+        <v>51.531409697094915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>41.07499942550573</v>
+      </c>
+      <c r="E7" s="1">
+        <v>42.775523960364026</v>
+      </c>
+      <c r="F7" s="1">
+        <v>41.621046961892027</v>
+      </c>
+      <c r="G7" s="1">
+        <v>36.892574710755717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43.94764360725884</v>
+      </c>
+      <c r="E8" s="1">
+        <v>46.760946405552403</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44.677677996015788</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32.753487715126504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43.856414906639323</v>
+      </c>
+      <c r="E9" s="1">
+        <v>48.941911083628902</v>
+      </c>
+      <c r="F9" s="1">
+        <v>61.421241715852318</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43.663470932093119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43.6413103778739</v>
+      </c>
+      <c r="E10" s="1">
+        <v>53.203663362269971</v>
+      </c>
+      <c r="F10" s="1">
+        <v>34.811072446605351</v>
+      </c>
+      <c r="G10" s="1">
+        <v>34.458489362360304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36.732069083893663</v>
+      </c>
+      <c r="E11" s="1">
+        <v>47.657360502134942</v>
+      </c>
+      <c r="F11" s="1">
+        <v>40.59024267472229</v>
+      </c>
+      <c r="G11" s="1">
+        <v>33.647344731903274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43.905691326929137</v>
+      </c>
+      <c r="E12" s="1">
+        <v>48.181319050842347</v>
+      </c>
+      <c r="F12" s="1">
+        <v>57.650053034378381</v>
+      </c>
+      <c r="G12" s="1">
+        <v>48.73813401608983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>47.022504585357304</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50.798418481282461</v>
+      </c>
+      <c r="F13" s="1">
+        <v>38.398591862187885</v>
+      </c>
+      <c r="G13" s="1">
+        <v>33.289839934590816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41.315441498460295</v>
+      </c>
+      <c r="E14" s="1">
+        <v>40.513642481121863</v>
+      </c>
+      <c r="F14" s="1">
+        <v>33.873014154970498</v>
+      </c>
+      <c r="G14" s="1">
+        <v>31.683577221295746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>48.701839847873565</v>
+      </c>
+      <c r="E15" s="1">
+        <v>53.545891801306638</v>
+      </c>
+      <c r="F15" s="1">
+        <v>59.115599320535047</v>
+      </c>
+      <c r="G15" s="1">
+        <v>47.879155772167124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>46.778346208057918</v>
+      </c>
+      <c r="E16" s="1">
+        <v>51.359996115987698</v>
+      </c>
+      <c r="F16" s="1">
+        <v>39.2925754406347</v>
+      </c>
+      <c r="G16" s="1">
+        <v>42.555456314182365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43.089024563190428</v>
+      </c>
+      <c r="E17" s="1">
+        <v>46.551601544714096</v>
+      </c>
+      <c r="F17" s="1">
+        <v>35.603504364947277</v>
+      </c>
+      <c r="G17" s="1">
+        <v>34.212811880883613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="1">
+        <v>54.910002802410858</v>
+      </c>
+      <c r="E18" s="1">
+        <v>55.058604673971423</v>
+      </c>
+      <c r="F18" s="1">
+        <v>61.534108339548482</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43.055447899971583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41.016081007703576</v>
+      </c>
+      <c r="E19" s="1">
+        <v>49.250126722408879</v>
+      </c>
+      <c r="F19" s="1">
+        <v>35.552396837472699</v>
+      </c>
+      <c r="G19" s="1">
+        <v>36.286269475079891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>37.230234224545121</v>
+      </c>
+      <c r="E20" s="1">
+        <v>34.956861029744545</v>
+      </c>
+      <c r="F20" s="1">
+        <v>36.995681618522966</v>
+      </c>
+      <c r="G20" s="1">
+        <v>29.702832540360113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>46.847110014966376</v>
+      </c>
+      <c r="E21" s="1">
+        <v>57.913430242020482</v>
+      </c>
+      <c r="F21" s="1">
+        <v>52.597248575794225</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45.092809213952208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37.623071152996147</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45.531298119333798</v>
+      </c>
+      <c r="F22" s="1">
+        <v>33.445801400572961</v>
+      </c>
+      <c r="G22" s="1">
+        <v>33.022074515455309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1">
+        <v>32.471769326219217</v>
+      </c>
+      <c r="E23" s="1">
+        <v>33.937892263046223</v>
+      </c>
+      <c r="F23" s="1">
+        <v>40.019261499888636</v>
+      </c>
+      <c r="G23" s="1">
+        <v>24.307718292381274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
+        <v>52.031594838240174</v>
+      </c>
+      <c r="E24" s="1">
+        <v>51.533412378527302</v>
+      </c>
+      <c r="F24" s="1">
+        <v>55.746017014244984</v>
+      </c>
+      <c r="G24" s="1">
+        <v>42.255697791005609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42.173791994456849</v>
+      </c>
+      <c r="E25" s="1">
+        <v>41.384943043324697</v>
+      </c>
+      <c r="F25" s="1">
+        <v>32.029549683521623</v>
+      </c>
+      <c r="G25" s="1">
+        <v>26.51199678564404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1">
+        <v>35.934963097915869</v>
+      </c>
+      <c r="E26" s="1">
+        <v>40.022459676436682</v>
+      </c>
+      <c r="F26" s="1">
+        <v>36.490258472487746</v>
+      </c>
+      <c r="G26" s="1">
+        <v>26.598806769140488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1">
+        <v>53.385007793397968</v>
+      </c>
+      <c r="E27" s="1">
+        <v>52.662937609958107</v>
+      </c>
+      <c r="F27" s="1">
+        <v>58.09281113807473</v>
+      </c>
+      <c r="G27" s="1">
+        <v>43.580006616156432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>38.699156157250563</v>
+      </c>
+      <c r="E28" s="1">
+        <v>38.155366686727866</v>
+      </c>
+      <c r="F28" s="1">
+        <v>35.536594736848301</v>
+      </c>
+      <c r="G28" s="1">
+        <v>29.878520926190134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1">
+        <v>43.367557678837478</v>
+      </c>
+      <c r="E29" s="1">
+        <v>41.475079764568889</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42.715324320214641</v>
+      </c>
+      <c r="G29" s="1">
+        <v>31.468941108356159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1">
+        <v>49.112464863631118</v>
+      </c>
+      <c r="E30" s="1">
+        <v>56.078386323304045</v>
+      </c>
+      <c r="F30" s="1">
+        <v>55.610372966771521</v>
+      </c>
+      <c r="G30" s="1">
+        <v>51.064291653038438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44.150664568520497</v>
+      </c>
+      <c r="E31" s="1">
+        <v>49.637334691222115</v>
+      </c>
+      <c r="F31" s="1">
+        <v>47.307825182708847</v>
+      </c>
+      <c r="G31" s="1">
+        <v>42.106073986542121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42.725871622396525</v>
+      </c>
+      <c r="E32" s="1">
+        <v>48.535425517344756</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42.161896036865187</v>
+      </c>
+      <c r="G32" s="1">
+        <v>36.264167997747137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1">
+        <v>56.594651017327401</v>
+      </c>
+      <c r="E33" s="1">
+        <v>60.163838565377631</v>
+      </c>
+      <c r="F33" s="1">
+        <v>62.774791415388087</v>
+      </c>
+      <c r="G33" s="1">
+        <v>49.946834854374551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42.289726122130567</v>
+      </c>
+      <c r="E34" s="1">
+        <v>49.832261754767728</v>
+      </c>
+      <c r="F34" s="1">
+        <v>46.079176401622064</v>
+      </c>
+      <c r="G34" s="1">
+        <v>39.97284512966111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42.875174446050231</v>
+      </c>
+      <c r="E35" s="1">
+        <v>46.229980920177567</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45.928448869236455</v>
+      </c>
+      <c r="G35" s="1">
+        <v>29.808288172265613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1">
+        <v>49.904667158725154</v>
+      </c>
+      <c r="E36" s="1">
+        <v>56.723698229232035</v>
+      </c>
+      <c r="F36" s="1">
+        <v>66.536666367819763</v>
+      </c>
+      <c r="G36" s="1">
+        <v>47.85415406458614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1">
+        <v>46.474515417230769</v>
+      </c>
+      <c r="E37" s="1">
+        <v>52.60572636865782</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44.923412441457948</v>
+      </c>
+      <c r="G37" s="1">
+        <v>33.577143385883275</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA285D7-A52D-C04E-ACB6-1E004D372BC8}">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <v>57.619011143330987</v>
+      </c>
+      <c r="F2" s="1">
+        <v>67.872536763017848</v>
+      </c>
+      <c r="G2" s="1">
+        <v>68.817962251884339</v>
+      </c>
+      <c r="H2" s="1">
+        <v>61.193307758311988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42.321962028193489</v>
+      </c>
+      <c r="F3" s="1">
+        <v>49.276858266403046</v>
+      </c>
+      <c r="G3" s="1">
+        <v>58.868524844456886</v>
+      </c>
+      <c r="H3" s="1">
+        <v>50.746735129570062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>49.525514708661539</v>
+      </c>
+      <c r="F4" s="1">
+        <v>54.912183770252398</v>
+      </c>
+      <c r="G4" s="1">
+        <v>46.010082938606168</v>
+      </c>
+      <c r="H4" s="1">
+        <v>34.319251003201778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31.019530550329897</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42.391922722598956</v>
+      </c>
+      <c r="G5" s="1">
+        <v>26.639646726140995</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11.586251127469836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>51.396548030306299</v>
+      </c>
+      <c r="F6" s="1">
+        <v>57.16923194940702</v>
+      </c>
+      <c r="G6" s="1">
+        <v>49.259640452025771</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50.760594343508465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41.78111381066757</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43.983367141561914</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30.843202733211999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>31.216179556375735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>55.178975956604148</v>
+      </c>
+      <c r="F8" s="1">
+        <v>65.301216338784855</v>
+      </c>
+      <c r="G8" s="1">
+        <v>78.594469395722697</v>
+      </c>
+      <c r="H8" s="1">
+        <v>68.226591562402191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30.822792394938606</v>
+      </c>
+      <c r="F9" s="1">
+        <v>48.460878767678935</v>
+      </c>
+      <c r="G9" s="1">
+        <v>53.328150863320161</v>
+      </c>
+      <c r="H9" s="1">
+        <v>42.555177343759581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <v>48.331590520291755</v>
+      </c>
+      <c r="F10" s="1">
+        <v>52.710852437237072</v>
+      </c>
+      <c r="G10" s="1">
+        <v>53.594008055227555</v>
+      </c>
+      <c r="H10" s="1">
+        <v>35.763489688767919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>37.864692572061706</v>
+      </c>
+      <c r="F11" s="1">
+        <v>38.253300220107917</v>
+      </c>
+      <c r="G11" s="1">
+        <v>39.671477642560191</v>
+      </c>
+      <c r="H11" s="1">
+        <v>19.584892076077395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>57.625156757740122</v>
+      </c>
+      <c r="F12" s="1">
+        <v>58.950972864107932</v>
+      </c>
+      <c r="G12" s="1">
+        <v>49.077615463438683</v>
+      </c>
+      <c r="H12" s="1">
+        <v>40.10159810480878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>33.516328587553964</v>
+      </c>
+      <c r="F13" s="1">
+        <v>47.269779375883097</v>
+      </c>
+      <c r="G13" s="1">
+        <v>32.346700310552791</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17.073633972402607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41.66132140419851</v>
+      </c>
+      <c r="F14" s="1">
+        <v>64.478468722786729</v>
+      </c>
+      <c r="G14" s="1">
+        <v>64.888402977875714</v>
+      </c>
+      <c r="H14" s="1">
+        <v>61.909322376011573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <v>37.766600800247105</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42.346667667211925</v>
+      </c>
+      <c r="G15" s="1">
+        <v>49.593873898586828</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40.038034571568851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1">
+        <v>41.694083805698185</v>
+      </c>
+      <c r="F16" s="1">
+        <v>46.923824677939955</v>
+      </c>
+      <c r="G16" s="1">
+        <v>41.76511127274032</v>
+      </c>
+      <c r="H16" s="1">
+        <v>27.756209589130695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1">
+        <v>32.565612574720404</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30.685566893819061</v>
+      </c>
+      <c r="G17" s="1">
+        <v>37.382055041591698</v>
+      </c>
+      <c r="H17" s="1">
+        <v>15.602226259063169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44.947836729382047</v>
+      </c>
+      <c r="F18" s="1">
+        <v>48.965585740633472</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44.273751403251602</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45.851237649133253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>32.811615878852294</v>
+      </c>
+      <c r="F19" s="1">
+        <v>38.090744741721714</v>
+      </c>
+      <c r="G19" s="1">
+        <v>28.434845098995357</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20.117540848470057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1">
+        <v>57.997001290719915</v>
+      </c>
+      <c r="F20" s="1">
+        <v>57.179101684619255</v>
+      </c>
+      <c r="G20" s="1">
+        <v>59.124032547761153</v>
+      </c>
+      <c r="H20" s="1">
+        <v>48.860110008477875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1">
+        <v>39.565755511842823</v>
+      </c>
+      <c r="F21" s="1">
+        <v>47.216235407501756</v>
+      </c>
+      <c r="G21" s="1">
+        <v>48.727397735520867</v>
+      </c>
+      <c r="H21" s="1">
+        <v>35.003649793795034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1">
+        <v>38.967631239141369</v>
+      </c>
+      <c r="F22" s="1">
+        <v>46.205436893970841</v>
+      </c>
+      <c r="G22" s="1">
+        <v>43.791381033571525</v>
+      </c>
+      <c r="H22" s="1">
+        <v>18.684994779401428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1">
+        <v>33.200214663180333</v>
+      </c>
+      <c r="F23" s="1">
+        <v>33.983103070741159</v>
+      </c>
+      <c r="G23" s="1">
+        <v>28.494276731914667</v>
+      </c>
+      <c r="H23" s="1">
+        <v>13.590655415948955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1">
+        <v>52.03032105344176</v>
+      </c>
+      <c r="F24" s="1">
+        <v>53.948611594047982</v>
+      </c>
+      <c r="G24" s="1">
+        <v>43.440561597754581</v>
+      </c>
+      <c r="H24" s="1">
+        <v>35.752639085510765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>25.465544819585318</v>
+      </c>
+      <c r="F25" s="1">
+        <v>38.647591438256136</v>
+      </c>
+      <c r="G25" s="1">
+        <v>21.885145865547422</v>
+      </c>
+      <c r="H25" s="1">
+        <v>16.651783003306623</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1">
+        <v>59.656112975360905</v>
+      </c>
+      <c r="F26" s="1">
+        <v>62.683304759857165</v>
+      </c>
+      <c r="G26" s="1">
+        <v>70.215194605153869</v>
+      </c>
+      <c r="H26" s="1">
+        <v>59.183044634378575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1">
+        <v>41.253073364121661</v>
+      </c>
+      <c r="F27" s="1">
+        <v>47.907432111917274</v>
+      </c>
+      <c r="G27" s="1">
+        <v>52.179561457816767</v>
+      </c>
+      <c r="H27" s="1">
+        <v>39.372898908196476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1">
+        <v>53.124481439413501</v>
+      </c>
+      <c r="F28" s="1">
+        <v>56.374759245034525</v>
+      </c>
+      <c r="G28" s="1">
+        <v>53.416211498488032</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27.263624231376767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1">
+        <v>32.39304055012461</v>
+      </c>
+      <c r="F29" s="1">
+        <v>38.013100565324152</v>
+      </c>
+      <c r="G29" s="1">
+        <v>38.017670528957126</v>
+      </c>
+      <c r="H29" s="1">
+        <v>15.877099798338898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1">
+        <v>53.527258594635526</v>
+      </c>
+      <c r="F30" s="1">
+        <v>59.901752793910042</v>
+      </c>
+      <c r="G30" s="1">
+        <v>46.719255586136796</v>
+      </c>
+      <c r="H30" s="1">
+        <v>38.174025237146132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1">
+        <v>38.553010556413021</v>
+      </c>
+      <c r="F31" s="1">
+        <v>41.920857607239618</v>
+      </c>
+      <c r="G31" s="1">
+        <v>35.635532093696504</v>
+      </c>
+      <c r="H31" s="1">
+        <v>31.434678046520162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>28.71</v>
-      </c>
-      <c r="D2" s="4">
-        <v>31.84</v>
-      </c>
-      <c r="E2" s="4">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="F2" s="4">
-        <v>26.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>26.02</v>
-      </c>
-      <c r="D3" s="4">
-        <v>33.32</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20.010000000000002</v>
-      </c>
-      <c r="F3" s="4">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>22.39</v>
-      </c>
-      <c r="D4" s="4">
-        <v>23.6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10.29</v>
-      </c>
-      <c r="F4" s="4">
-        <v>15.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>23.86</v>
-      </c>
-      <c r="D5" s="4">
-        <v>24.12</v>
-      </c>
-      <c r="E5" s="4">
-        <v>15.94</v>
-      </c>
-      <c r="F5" s="4">
-        <v>22.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>19.45</v>
-      </c>
-      <c r="D6" s="4">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6.35</v>
-      </c>
-      <c r="F6" s="4">
-        <v>8.1199999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>15.03</v>
-      </c>
-      <c r="D7" s="4">
-        <v>25.12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>16.88</v>
-      </c>
-      <c r="D8" s="4">
-        <v>25.63</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="F8" s="4">
-        <v>12.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>16.37</v>
-      </c>
-      <c r="D9" s="4">
-        <v>21.96</v>
-      </c>
-      <c r="E9" s="4">
-        <v>13.95</v>
-      </c>
-      <c r="F9" s="4">
-        <v>12.28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>16.43</v>
-      </c>
-      <c r="D10" s="4">
-        <v>31.49</v>
-      </c>
-      <c r="E10" s="4">
-        <v>21.560000000000002</v>
-      </c>
-      <c r="F10" s="4">
-        <v>11.33</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>22.01</v>
-      </c>
-      <c r="D11" s="4">
-        <v>35.51</v>
-      </c>
-      <c r="E11" s="4">
-        <v>16.629999999999995</v>
-      </c>
-      <c r="F11" s="4">
-        <v>16.79</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>18.21</v>
-      </c>
-      <c r="D12" s="4">
-        <v>33.11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>25.509999999999998</v>
-      </c>
-      <c r="F12" s="4">
-        <v>11.04</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D13" s="4">
-        <v>36.450000000000003</v>
-      </c>
-      <c r="E13" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="F13" s="4">
-        <v>17.28</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>21.59</v>
-      </c>
-      <c r="D14" s="4">
-        <v>41.87</v>
-      </c>
-      <c r="E14" s="4">
-        <v>51.29</v>
-      </c>
-      <c r="F14" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>31.8</v>
-      </c>
-      <c r="D15" s="4">
-        <v>29.68</v>
-      </c>
-      <c r="E15" s="4">
-        <v>52.79</v>
-      </c>
-      <c r="F15" s="4">
-        <v>14.31</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4">
-        <v>19.79</v>
-      </c>
-      <c r="D16" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>50.44</v>
-      </c>
-      <c r="F16" s="4">
-        <v>19.09</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>26.37</v>
-      </c>
-      <c r="D17" s="4">
-        <v>30.96</v>
-      </c>
-      <c r="E17" s="4">
-        <v>52.28</v>
-      </c>
-      <c r="F17" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>40.92</v>
-      </c>
-      <c r="D18" s="4">
-        <v>47.05</v>
-      </c>
-      <c r="E18" s="4">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="F18" s="4">
-        <v>28.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
-        <v>43.07</v>
-      </c>
-      <c r="D19" s="4">
-        <v>44.72</v>
-      </c>
-      <c r="E19" s="4">
-        <v>19.54</v>
-      </c>
-      <c r="F19" s="4">
-        <v>30.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4">
-        <v>35.340000000000003</v>
-      </c>
-      <c r="D20" s="4">
-        <v>40.32</v>
-      </c>
-      <c r="E20" s="4">
-        <v>12.13</v>
-      </c>
-      <c r="F20" s="4">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>38.49</v>
-      </c>
-      <c r="D21" s="4">
-        <v>42.37</v>
-      </c>
-      <c r="E21" s="4">
-        <v>19.64</v>
-      </c>
-      <c r="F21" s="4">
-        <v>22.41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>52.85</v>
-      </c>
-      <c r="D22" s="4">
-        <v>49.77</v>
-      </c>
-      <c r="E22" s="4">
-        <v>35.47</v>
-      </c>
-      <c r="F22" s="4">
-        <v>43.74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4">
-        <v>48.88</v>
-      </c>
-      <c r="D23" s="4">
-        <v>54.36</v>
-      </c>
-      <c r="E23" s="4">
-        <v>24.94</v>
-      </c>
-      <c r="F23" s="4">
-        <v>41.92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4">
-        <v>51.16</v>
-      </c>
-      <c r="D24" s="4">
-        <v>55.93</v>
-      </c>
-      <c r="E24" s="4">
-        <v>37.93</v>
-      </c>
-      <c r="F24" s="4">
-        <v>46.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4">
-        <v>47.61</v>
-      </c>
-      <c r="D25" s="4">
-        <v>57.66</v>
-      </c>
-      <c r="E25" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="F25" s="4">
-        <v>40.39</v>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1">
+        <v>53.778867529715335</v>
+      </c>
+      <c r="F32" s="1">
+        <v>59.181035409444881</v>
+      </c>
+      <c r="G32" s="1">
+        <v>58.005375760886423</v>
+      </c>
+      <c r="H32" s="1">
+        <v>54.863346134868337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1">
+        <v>34.536632441701556</v>
+      </c>
+      <c r="F33" s="1">
+        <v>41.076155501521754</v>
+      </c>
+      <c r="G33" s="1">
+        <v>49.249020119441717</v>
+      </c>
+      <c r="H33" s="1">
+        <v>40.036204960315871</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43.200135251589224</v>
+      </c>
+      <c r="F34" s="1">
+        <v>41.01816835236437</v>
+      </c>
+      <c r="G34" s="1">
+        <v>49.742863107742799</v>
+      </c>
+      <c r="H34" s="1">
+        <v>26.800424638970075</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="1">
+        <v>27.186065514407499</v>
+      </c>
+      <c r="F35" s="1">
+        <v>34.524146827940967</v>
+      </c>
+      <c r="G35" s="1">
+        <v>29.381556086326064</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8.5756458762440992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45.971813193216619</v>
+      </c>
+      <c r="F36" s="1">
+        <v>50.476937407437774</v>
+      </c>
+      <c r="G36" s="1">
+        <v>44.858343825738885</v>
+      </c>
+      <c r="H36" s="1">
+        <v>34.646928968638498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="1">
+        <v>33.486608153390911</v>
+      </c>
+      <c r="F37" s="1">
+        <v>39.146276621798769</v>
+      </c>
+      <c r="G37" s="1">
+        <v>29.78530890520878</v>
+      </c>
+      <c r="H37" s="1">
+        <v>22.570018192792272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1">
+        <v>53.218715848781549</v>
+      </c>
+      <c r="F38" s="1">
+        <v>63.99082950765424</v>
+      </c>
+      <c r="G38" s="1">
+        <v>71.777347836751346</v>
+      </c>
+      <c r="H38" s="1">
+        <v>66.725635040327845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="1">
+        <v>41.601289066096292</v>
+      </c>
+      <c r="F39" s="1">
+        <v>40.434997452900049</v>
+      </c>
+      <c r="G39" s="1">
+        <v>47.968051076824466</v>
+      </c>
+      <c r="H39" s="1">
+        <v>43.753689679989471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1">
+        <v>51.301259953628886</v>
+      </c>
+      <c r="F40" s="1">
+        <v>57.923920539067659</v>
+      </c>
+      <c r="G40" s="1">
+        <v>44.044804981509657</v>
+      </c>
+      <c r="H40" s="1">
+        <v>31.568751294014938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="1">
+        <v>34.862191983978789</v>
+      </c>
+      <c r="F41" s="1">
+        <v>34.838476764752372</v>
+      </c>
+      <c r="G41" s="1">
+        <v>38.929579941083034</v>
+      </c>
+      <c r="H41" s="1">
+        <v>24.493076488797399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1">
+        <v>57.199947463978958</v>
+      </c>
+      <c r="F42" s="1">
+        <v>66.658895788936974</v>
+      </c>
+      <c r="G42" s="1">
+        <v>51.127923201932468</v>
+      </c>
+      <c r="H42" s="1">
+        <v>41.171960914085318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="1">
+        <v>35.654537041249597</v>
+      </c>
+      <c r="F43" s="1">
+        <v>39.270234213571499</v>
+      </c>
+      <c r="G43" s="1">
+        <v>27.604671312515173</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23.004547446504031</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1">
+        <v>54.643124385710337</v>
+      </c>
+      <c r="F44" s="1">
+        <v>52.068863494530873</v>
+      </c>
+      <c r="G44" s="1">
+        <v>56.189557159016665</v>
+      </c>
+      <c r="H44" s="1">
+        <v>60.692998499067656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="1">
+        <v>38.73961146169907</v>
+      </c>
+      <c r="F45" s="1">
+        <v>42.027484454476237</v>
+      </c>
+      <c r="G45" s="1">
+        <v>46.376990066091558</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44.565078121206128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1">
+        <v>41.850744609117335</v>
+      </c>
+      <c r="F46" s="1">
+        <v>46.46575944971147</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45.985705200305233</v>
+      </c>
+      <c r="H46" s="1">
+        <v>27.433946945577187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30.947066215770146</v>
+      </c>
+      <c r="F47" s="1">
+        <v>33.587380622084183</v>
+      </c>
+      <c r="G47" s="1">
+        <v>29.320194505260996</v>
+      </c>
+      <c r="H47" s="1">
+        <v>17.922915667730749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1">
+        <v>49.69605850448135</v>
+      </c>
+      <c r="F48" s="1">
+        <v>55.838336950289232</v>
+      </c>
+      <c r="G48" s="1">
+        <v>43.245857952324585</v>
+      </c>
+      <c r="H48" s="1">
+        <v>32.298769073623447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="1">
+        <v>27.116814800612321</v>
+      </c>
+      <c r="F49" s="1">
+        <v>36.469064301769222</v>
+      </c>
+      <c r="G49" s="1">
+        <v>34.239469451679071</v>
+      </c>
+      <c r="H49" s="1">
+        <v>20.760663841235267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1">
+        <v>56.256000807690029</v>
+      </c>
+      <c r="F50" s="1">
+        <v>57.279200137607177</v>
+      </c>
+      <c r="G50" s="1">
+        <v>62.456548878198319</v>
+      </c>
+      <c r="H50" s="1">
+        <v>55.12587739452605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="1">
+        <v>37.857518631822956</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44.587198193063664</v>
+      </c>
+      <c r="G51" s="1">
+        <v>53.913781935795939</v>
+      </c>
+      <c r="H51" s="1">
+        <v>39.150264142043298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43.69684823862076</v>
+      </c>
+      <c r="F52" s="1">
+        <v>41.361346047465553</v>
+      </c>
+      <c r="G52" s="1">
+        <v>42.13328445883603</v>
+      </c>
+      <c r="H52" s="1">
+        <v>24.16512317719268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="1">
+        <v>33.095844227848183</v>
+      </c>
+      <c r="F53" s="1">
+        <v>26.976586574379702</v>
+      </c>
+      <c r="G53" s="1">
+        <v>30.793345033185208</v>
+      </c>
+      <c r="H53" s="1">
+        <v>20.542428433313862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="1">
+        <v>50.623417351769199</v>
+      </c>
+      <c r="F54" s="1">
+        <v>48.835424501796673</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45.176118990805037</v>
+      </c>
+      <c r="H54" s="1">
+        <v>39.336593795536061</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1">
+        <v>33.236843146819368</v>
+      </c>
+      <c r="F55" s="1">
+        <v>36.499971585820738</v>
+      </c>
+      <c r="G55" s="1">
+        <v>29.572832859685192</v>
+      </c>
+      <c r="H55" s="1">
+        <v>17.434263196092363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1">
+        <v>55.787951674786406</v>
+      </c>
+      <c r="F56" s="1">
+        <v>57.969069863815683</v>
+      </c>
+      <c r="G56" s="1">
+        <v>63.528765174719943</v>
+      </c>
+      <c r="H56" s="1">
+        <v>59.010216704488911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="1">
+        <v>33.486493103261871</v>
+      </c>
+      <c r="F57" s="1">
+        <v>40.071683970438428</v>
+      </c>
+      <c r="G57" s="1">
+        <v>51.372075625157095</v>
+      </c>
+      <c r="H57" s="1">
+        <v>41.033472838435415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45.709856185475523</v>
+      </c>
+      <c r="F58" s="1">
+        <v>47.424952894862606</v>
+      </c>
+      <c r="G58" s="1">
+        <v>46.269925592933618</v>
+      </c>
+      <c r="H58" s="1">
+        <v>28.168824237111643</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="1">
+        <v>32.285490902635829</v>
+      </c>
+      <c r="F59" s="1">
+        <v>33.894410601024241</v>
+      </c>
+      <c r="G59" s="1">
+        <v>20.265741622941089</v>
+      </c>
+      <c r="H59" s="1">
+        <v>21.643206217227956</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43.454276444552171</v>
+      </c>
+      <c r="F60" s="1">
+        <v>51.96981450280326</v>
+      </c>
+      <c r="G60" s="1">
+        <v>39.085201956949192</v>
+      </c>
+      <c r="H60" s="1">
+        <v>38.466334544455982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="1">
+        <v>34.899678313352723</v>
+      </c>
+      <c r="F61" s="1">
+        <v>35.08404690218736</v>
+      </c>
+      <c r="G61" s="1">
+        <v>20.309617046535742</v>
+      </c>
+      <c r="H61" s="1">
+        <v>24.655272694123191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1">
+        <v>49.769798460366161</v>
+      </c>
+      <c r="F62" s="1">
+        <v>70.187247696434028</v>
+      </c>
+      <c r="G62" s="1">
+        <v>64.408188617970424</v>
+      </c>
+      <c r="H62" s="1">
+        <v>62.111097703269444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="1">
+        <v>34.525063274732837</v>
+      </c>
+      <c r="F63" s="1">
+        <v>41.72299822879625</v>
+      </c>
+      <c r="G63" s="1">
+        <v>50.603345423479027</v>
+      </c>
+      <c r="H63" s="1">
+        <v>41.449017272115285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="1">
+        <v>42.620673677749672</v>
+      </c>
+      <c r="F64" s="1">
+        <v>51.38320102846766</v>
+      </c>
+      <c r="G64" s="1">
+        <v>42.576244773415958</v>
+      </c>
+      <c r="H64" s="1">
+        <v>35.59493420198568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="1">
+        <v>27.546459780550229</v>
+      </c>
+      <c r="F65" s="1">
+        <v>39.255507209557621</v>
+      </c>
+      <c r="G65" s="1">
+        <v>34.006565792984503</v>
+      </c>
+      <c r="H65" s="1">
+        <v>10.172258610643357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="1">
+        <v>52.578724394294269</v>
+      </c>
+      <c r="F66" s="1">
+        <v>49.854548946590384</v>
+      </c>
+      <c r="G66" s="1">
+        <v>46.036654256720446</v>
+      </c>
+      <c r="H66" s="1">
+        <v>38.431458262482217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1">
+        <v>35.6895788412127</v>
+      </c>
+      <c r="F67" s="1">
+        <v>46.079648747130612</v>
+      </c>
+      <c r="G67" s="1">
+        <v>30.099922606174651</v>
+      </c>
+      <c r="H67" s="1">
+        <v>18.897622749243812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="1">
+        <v>58.186260726860951</v>
+      </c>
+      <c r="F68" s="1">
+        <v>57.791486379230278</v>
+      </c>
+      <c r="G68" s="1">
+        <v>64.387779985599181</v>
+      </c>
+      <c r="H68" s="1">
+        <v>59.389281186357408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="1">
+        <v>46.039493350263079</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44.376256855187698</v>
+      </c>
+      <c r="G69" s="1">
+        <v>49.410874425205627</v>
+      </c>
+      <c r="H69" s="1">
+        <v>35.615650679465958</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="1">
+        <v>48.815373086761078</v>
+      </c>
+      <c r="F70" s="1">
+        <v>52.838199210257898</v>
+      </c>
+      <c r="G70" s="1">
+        <v>41.367846665586612</v>
+      </c>
+      <c r="H70" s="1">
+        <v>36.021366249011038</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="1">
+        <v>32.847838377469671</v>
+      </c>
+      <c r="F71" s="1">
+        <v>32.184034272891367</v>
+      </c>
+      <c r="G71" s="1">
+        <v>29.097275038225572</v>
+      </c>
+      <c r="H71" s="1">
+        <v>16.409371216238299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="1">
+        <v>59.158902940203916</v>
+      </c>
+      <c r="F72" s="1">
+        <v>55.017670458601437</v>
+      </c>
+      <c r="G72" s="1">
+        <v>39.411017271001576</v>
+      </c>
+      <c r="H72" s="1">
+        <v>41.026472374436111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="1">
+        <v>35.109149293517284</v>
+      </c>
+      <c r="F73" s="1">
+        <v>36.988947517546165</v>
+      </c>
+      <c r="G73" s="1">
+        <v>27.425050848718801</v>
+      </c>
+      <c r="H73" s="1">
+        <v>30.356610973773819</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
+    <sortCondition ref="A2:A74"/>
+    <sortCondition ref="C2:C74"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AABB94-2F91-874E-BD21-A7A146A6F8BD}">
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4987,7 +8284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308B3B2-2514-984D-AFD4-5A66563DEF9F}">
   <dimension ref="A1:D49"/>
   <sheetViews>

--- a/data/fleas_complex_data.xlsx
+++ b/data/fleas_complex_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48805D4-8D51-654A-BB34-0755D3296D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3899EB17-7238-8141-89BC-6CC7F4131355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1580" windowWidth="30380" windowHeight="15800" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="1760" yWindow="1580" windowWidth="30380" windowHeight="15800" activeTab="6" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="repeated-fac2" sheetId="8" r:id="rId4"/>
     <sheet name="repeated-fac3" sheetId="6" r:id="rId5"/>
     <sheet name="fac4" sheetId="2" r:id="rId6"/>
-    <sheet name="covariate" sheetId="3" r:id="rId7"/>
+    <sheet name="covariate-fac1" sheetId="10" r:id="rId7"/>
+    <sheet name="covariate-fac2" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="29">
   <si>
     <t>animal</t>
   </si>
@@ -174,11 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -515,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A3226C-54DC-B848-8696-B223120F0E3A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -554,22 +557,22 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>31.55909096985193</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>27.606665896679409</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>26.115928747587045</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>17.659919460691828</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>18.33128508561088</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>7.4305697069207852</v>
       </c>
     </row>
@@ -580,22 +583,22 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>32.866209284144198</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>26.121987372056815</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>28.232668158980804</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>19.252727997906209</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>12.005854362609675</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>8.753625648876513</v>
       </c>
     </row>
@@ -606,22 +609,22 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>33.432849009694017</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>31.22553105435059</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>26.589447946572463</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>24.192980399028265</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>13.953989628116979</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>0.26637802765024432</v>
       </c>
     </row>
@@ -632,22 +635,22 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>24.876463684780553</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>30.474276458411257</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>26.821582004821938</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>23.765871226134749</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>20.711365757585231</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>1.3442855221283687</v>
       </c>
     </row>
@@ -658,22 +661,22 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>36.646511040330537</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>36.467928006483888</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>22.499648738651363</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>26.713647200484708</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>16.685861224159165</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>10.304877072493666</v>
       </c>
     </row>
@@ -684,22 +687,22 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>32.043459192171476</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>29.76499003591276</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>22.824195614545143</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>18.168776169645103</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>23.819044352474062</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>6.4734529030777921</v>
       </c>
     </row>
@@ -710,22 +713,22 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>37.558136560980046</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>23.627520596759236</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>27.193017184017471</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>24.765497286227351</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>20.793407319256719</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="4">
         <v>4.5839307724571698</v>
       </c>
     </row>
@@ -736,22 +739,22 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>31.085848999852832</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>23.055216571316322</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>16.734636963102254</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>20.295214781995281</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>23.888921614972752</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <v>2.7713012496102705</v>
       </c>
     </row>
@@ -762,22 +765,22 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>33.279296925928115</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>25.816687443516216</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>33.761121822321073</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>16.969139402205066</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>26.292054432937302</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="4">
         <v>12.046581022838474</v>
       </c>
     </row>
@@ -788,22 +791,22 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>36.712452232886541</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>32.662010648043427</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>29.327384747167201</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>25.659429663791698</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>12.786449078164154</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="4">
         <v>15.948982881499973</v>
       </c>
     </row>
@@ -814,22 +817,22 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>43.495061112235121</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>23.544297937071018</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>21.488775919114627</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>19.439816893927652</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>17.390644028406136</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>15.422656933411023</v>
       </c>
     </row>
@@ -840,22 +843,22 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>40.496581599158958</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>26.700358482890195</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>21.206677520613685</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>13.798695649667561</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>23.679127910277462</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>15.361114026642213</v>
       </c>
     </row>
@@ -866,22 +869,22 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>38.905618598431744</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>29.374426628882606</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>20.177383351943178</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>16.266286157305867</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>18.143414089263668</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>22.192211551433122</v>
       </c>
     </row>
@@ -892,22 +895,22 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>39.368968051581653</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>32.117970311762726</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>32.582014119606278</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>12.632422821352373</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>20.992017730682658</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>18.206585404976892</v>
       </c>
     </row>
@@ -918,22 +921,22 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>42.72986984332902</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>28.277865519598166</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>23.284224665612946</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>24.209292163104365</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>21.504915932897475</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>24.736381139787575</v>
       </c>
     </row>
@@ -944,22 +947,22 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>45.580898439008102</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>30.722354650100996</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>20.05710793903668</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>15.518803507957969</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>21.222253297425041</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>14.887367970897088</v>
       </c>
     </row>
@@ -970,22 +973,22 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>56.355622953897807</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>48.57302897797787</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>28.941450847456395</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>30.688447871877113</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>30.448642727706606</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>35.862240443452023</v>
       </c>
     </row>
@@ -996,22 +999,22 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>49.008252052401318</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>41.297392313122302</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>36.445917298007025</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>26.834520384682346</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>24.143327713246091</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <v>24.895566404314533</v>
       </c>
     </row>
@@ -1022,22 +1025,22 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>51.340906975770672</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>42.455887403500448</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>37.918409066955817</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>31.007296729115843</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>29.463189823570314</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="4">
         <v>27.3539523872881</v>
       </c>
     </row>
@@ -1048,22 +1051,22 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>47.686428668014393</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>44.38875800807061</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>34.864530808286865</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>27.539629572577301</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>29.914753545724672</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>31.365791838765894</v>
       </c>
     </row>
@@ -1074,22 +1077,22 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>48.677476836738826</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>47.27730593078595</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>33.810992287189855</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>21.89308719302575</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>27.596491998417534</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="4">
         <v>33.836146940540047</v>
       </c>
     </row>
@@ -1100,22 +1103,22 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>51.556787678369957</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>49.850748351664159</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>37.171805282830846</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>30.662873406411411</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>27.666419322604792</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="4">
         <v>35.029665793441602</v>
       </c>
     </row>
@@ -1126,22 +1129,22 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>53.505893911308149</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>47.595860609685104</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>33.305239466277513</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>30.458551402630611</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>25.32049177440275</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="4">
         <v>28.314078873800646</v>
       </c>
     </row>
@@ -1152,22 +1155,22 @@
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>49.383727465385135</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>42.846568914777407</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>31.994764027729044</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>34.093412840497756</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <v>27.104435404373898</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="4">
         <v>34.812657757557204</v>
       </c>
     </row>
@@ -1928,7 +1931,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2203,7 +2206,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D4" sqref="D4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3071,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA285D7-A52D-C04E-ACB6-1E004D372BC8}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8285,11 +8288,301 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ADB12A-45DA-7845-83F6-9BF240A527AB}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10.9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>27.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>33.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>18.8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>30.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>14.9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9.4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>17.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>31.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C12" s="4">
+        <v>29.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>18.3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>41.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>41.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42.62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5">
+        <v>15.7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>40.619999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5">
+        <v>18.2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>56.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>23.7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>55.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4">
+        <v>32.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>46.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308B3B2-2514-984D-AFD4-5A66563DEF9F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8322,7 +8615,7 @@
         <v>16.740523431308382</v>
       </c>
       <c r="D2" s="1">
-        <v>42.932451866649593</v>
+        <v>39.840757698276754</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8336,7 +8629,7 @@
         <v>16.788347545548092</v>
       </c>
       <c r="D3" s="1">
-        <v>30.262353390285114</v>
+        <v>34.417431430930812</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,7 +8643,7 @@
         <v>19.300882361301706</v>
       </c>
       <c r="D4" s="1">
-        <v>27.210077640807086</v>
+        <v>42.318711306437137</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8364,7 +8657,7 @@
         <v>19.572098572698728</v>
       </c>
       <c r="D5" s="1">
-        <v>36.745893858826101</v>
+        <v>42.023076195317707</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8378,7 +8671,7 @@
         <v>13.090105631845866</v>
       </c>
       <c r="D6" s="1">
-        <v>29.80058322183319</v>
+        <v>39.695940303142109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8392,7 +8685,7 @@
         <v>16.830441659310051</v>
       </c>
       <c r="D7" s="1">
-        <v>38.456056696071535</v>
+        <v>32.693327864852435</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -8406,7 +8699,7 @@
         <v>21.087606718808285</v>
       </c>
       <c r="D8" s="1">
-        <v>38.562590366308754</v>
+        <v>32.116476322107026</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -8420,7 +8713,7 @@
         <v>14.175705259412585</v>
       </c>
       <c r="D9" s="1">
-        <v>35.060660765532077</v>
+        <v>43.77020687718796</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -8434,7 +8727,7 @@
         <v>4.4540668603421452</v>
       </c>
       <c r="D10" s="1">
-        <v>17.234432001998307</v>
+        <v>11.595599537244407</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -8448,7 +8741,7 @@
         <v>6.8659830503945711</v>
       </c>
       <c r="D11" s="1">
-        <v>20.558993132085188</v>
+        <v>29.537445649885967</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -8462,7 +8755,7 @@
         <v>4.7231553845530216</v>
       </c>
       <c r="D12" s="1">
-        <v>17.761613292871317</v>
+        <v>10.961619703812786</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -8476,7 +8769,7 @@
         <v>5.8079199801821666</v>
       </c>
       <c r="D13" s="1">
-        <v>8.4546906240639856</v>
+        <v>24.718259207783383</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -8490,7 +8783,7 @@
         <v>6.3474350606409935</v>
       </c>
       <c r="D14" s="1">
-        <v>17.894566352533037</v>
+        <v>17.999125455530926</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -8504,7 +8797,7 @@
         <v>4.9910333273911247</v>
       </c>
       <c r="D15" s="1">
-        <v>18.876821397578727</v>
+        <v>26.157280032231466</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -8518,7 +8811,7 @@
         <v>5.443867756272347</v>
       </c>
       <c r="D16" s="1">
-        <v>21.274705380220791</v>
+        <v>18.357618823166732</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -8532,7 +8825,7 @@
         <v>6.0924480474519811</v>
       </c>
       <c r="D17" s="1">
-        <v>17.257634166899546</v>
+        <v>22.899111623462339</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -8546,7 +8839,7 @@
         <v>12.551785869726</v>
       </c>
       <c r="D18" s="1">
-        <v>27.400333662168499</v>
+        <v>23.794022103197634</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -8560,7 +8853,7 @@
         <v>14.677997504472465</v>
       </c>
       <c r="D19" s="1">
-        <v>41.671638855827112</v>
+        <v>34.59781836683716</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -8574,7 +8867,7 @@
         <v>6.3721891324125526</v>
       </c>
       <c r="D20" s="1">
-        <v>28.807191738387573</v>
+        <v>35.547449842502495</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -8588,7 +8881,7 @@
         <v>14.406961205896865</v>
       </c>
       <c r="D21" s="1">
-        <v>24.105964192296632</v>
+        <v>48.857617301049743</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8602,7 +8895,7 @@
         <v>8.2698695214861981</v>
       </c>
       <c r="D22" s="1">
-        <v>39.777474551456123</v>
+        <v>33.728722932160366</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -8616,7 +8909,7 @@
         <v>10.424422440400685</v>
       </c>
       <c r="D23" s="1">
-        <v>27.639773723080914</v>
+        <v>34.076804861626158</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -8630,7 +8923,7 @@
         <v>13.47310375338721</v>
       </c>
       <c r="D24" s="1">
-        <v>32.812876395949999</v>
+        <v>34.744879553270025</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -8644,7 +8937,7 @@
         <v>12.279886579399953</v>
       </c>
       <c r="D25" s="1">
-        <v>31.841902983971764</v>
+        <v>38.633011792065098</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -8658,7 +8951,7 @@
         <v>5.3182127552804381</v>
       </c>
       <c r="D26" s="1">
-        <v>32.23457362027824</v>
+        <v>30.491907218668555</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -8672,7 +8965,7 @@
         <v>5.7838630449438817</v>
       </c>
       <c r="D27" s="1">
-        <v>26.933398445002403</v>
+        <v>29.175439636471783</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -8686,7 +8979,7 @@
         <v>6.0602340539404134</v>
       </c>
       <c r="D28" s="1">
-        <v>38.643878015873554</v>
+        <v>38.95563627681009</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -8700,7 +8993,7 @@
         <v>5.5199093188456336</v>
       </c>
       <c r="D29" s="1">
-        <v>36.213601413501749</v>
+        <v>38.711490081383303</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -8714,7 +9007,7 @@
         <v>7.4959869129489736</v>
       </c>
       <c r="D30" s="1">
-        <v>33.232717475653097</v>
+        <v>33.83256165899482</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8728,7 +9021,7 @@
         <v>4.3700051991313007</v>
       </c>
       <c r="D31" s="1">
-        <v>29.334080803090785</v>
+        <v>27.118486268802776</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8742,7 +9035,7 @@
         <v>6.8172665806171846</v>
       </c>
       <c r="D32" s="1">
-        <v>32.939559649040909</v>
+        <v>34.273189380528052</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -8756,7 +9049,7 @@
         <v>6.3037352821622532</v>
       </c>
       <c r="D33" s="1">
-        <v>46.826100189468605</v>
+        <v>21.526629939474553</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -8770,7 +9063,7 @@
         <v>13.475252753070272</v>
       </c>
       <c r="D34" s="1">
-        <v>40.701911018090669</v>
+        <v>36.830918649724772</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -8784,7 +9077,7 @@
         <v>14.362639509202033</v>
       </c>
       <c r="D35" s="1">
-        <v>53.473751924242926</v>
+        <v>36.234730795277514</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8798,7 +9091,7 @@
         <v>27.090701391327954</v>
       </c>
       <c r="D36" s="1">
-        <v>51.326352819979739</v>
+        <v>37.844826421326651</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -8812,7 +9105,7 @@
         <v>11.103641245100414</v>
       </c>
       <c r="D37" s="1">
-        <v>37.500104459080923</v>
+        <v>32.674892254826133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -8826,7 +9119,7 @@
         <v>13.271460875000994</v>
       </c>
       <c r="D38" s="1">
-        <v>48.401754192484574</v>
+        <v>44.109406274779452</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -8840,7 +9133,7 @@
         <v>13.193146209514115</v>
       </c>
       <c r="D39" s="1">
-        <v>44.589804916774781</v>
+        <v>46.818816030296311</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8854,7 +9147,7 @@
         <v>10.567447110083044</v>
       </c>
       <c r="D40" s="1">
-        <v>37.771135003369395</v>
+        <v>43.056101233836181</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -8868,7 +9161,7 @@
         <v>11.282744097896664</v>
       </c>
       <c r="D41" s="1">
-        <v>38.26157019390719</v>
+        <v>42.940000116146841</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -8882,7 +9175,7 @@
         <v>9.8382956502055716</v>
       </c>
       <c r="D42" s="1">
-        <v>38.048166185009691</v>
+        <v>36.030258619343158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -8896,7 +9189,7 @@
         <v>8.2057634638881822</v>
       </c>
       <c r="D43" s="1">
-        <v>29.767588078588616</v>
+        <v>41.771007842139483</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8910,7 +9203,7 @@
         <v>11.724361050115842</v>
       </c>
       <c r="D44" s="1">
-        <v>37.088053184667842</v>
+        <v>36.597778625724395</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -8924,7 +9217,7 @@
         <v>12.361450505880542</v>
       </c>
       <c r="D45" s="1">
-        <v>30.543845194787746</v>
+        <v>36.149280583644497</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -8938,7 +9231,7 @@
         <v>8.214428905320311</v>
       </c>
       <c r="D46" s="1">
-        <v>27.90406129099388</v>
+        <v>32.5350022535535</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -8952,7 +9245,7 @@
         <v>7.2963836537062505</v>
       </c>
       <c r="D47" s="1">
-        <v>31.467024719552185</v>
+        <v>39.722942183225619</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -8966,7 +9259,7 @@
         <v>8.6575977973457103</v>
       </c>
       <c r="D48" s="1">
-        <v>33.66766542762484</v>
+        <v>35.67994010058684</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -8980,7 +9273,7 @@
         <v>8.1269374963027801</v>
       </c>
       <c r="D49" s="1">
-        <v>32.278690447142424</v>
+        <v>38.333868949368735</v>
       </c>
     </row>
   </sheetData>

--- a/data/fleas_complex_data.xlsx
+++ b/data/fleas_complex_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3899EB17-7238-8141-89BC-6CC7F4131355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5FD2E-2782-954F-8238-C1C3AE21DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1580" windowWidth="30380" windowHeight="15800" activeTab="6" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
+    <workbookView xWindow="1760" yWindow="1580" windowWidth="30380" windowHeight="15800" activeTab="1" xr2:uid="{D5180EE9-C3D9-9544-968B-1031EEEB2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="mixed-fac2" sheetId="5" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4">
         <v>31.55909096985193</v>
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4">
         <v>32.866209284144198</v>
@@ -607,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4">
         <v>33.432849009694017</v>
@@ -633,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4">
         <v>24.876463684780553</v>
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>36.646511040330537</v>
@@ -685,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>32.043459192171476</v>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
         <v>37.558136560980046</v>
@@ -737,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4">
         <v>31.085848999852832</v>
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4">
         <v>33.279296925928115</v>
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4">
         <v>36.712452232886541</v>
@@ -815,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C12" s="4">
         <v>43.495061112235121</v>
@@ -841,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4">
         <v>40.496581599158958</v>
@@ -867,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4">
         <v>38.905618598431744</v>
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4">
         <v>39.368968051581653</v>
@@ -919,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4">
         <v>42.72986984332902</v>
@@ -945,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>45.580898439008102</v>
@@ -971,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
         <v>56.355622953897807</v>
@@ -997,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
         <v>49.008252052401318</v>
@@ -1023,7 +1023,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>51.340906975770672</v>
@@ -1049,7 +1049,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4">
         <v>47.686428668014393</v>
@@ -1075,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
         <v>48.677476836738826</v>
@@ -1101,7 +1101,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4">
         <v>51.556787678369957</v>
@@ -1127,7 +1127,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4">
         <v>53.505893911308149</v>
@@ -1153,7 +1153,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4">
         <v>49.383727465385135</v>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDDEF0-8AF1-4F45-97DB-B027737E21A4}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,10 +1197,10 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1226,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>44.499943972196249</v>
@@ -1255,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>36.334869020294349</v>
@@ -1284,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>31.758525384116222</v>
@@ -1313,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>38.284151113048139</v>
@@ -1342,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>28.869735744078159</v>
@@ -1371,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>36.137240443322867</v>
@@ -1400,10 +1400,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>32.083315321740386</v>
@@ -1429,10 +1429,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>36.527740552545794</v>
@@ -1458,10 +1458,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>42.585494352024313</v>
@@ -1487,10 +1487,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1">
         <v>44.41005345026273</v>
@@ -1516,10 +1516,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <v>48.41331662210473</v>
@@ -1545,10 +1545,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>48.733201092729722</v>
@@ -1574,10 +1574,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1">
         <v>55.193431462386009</v>
@@ -1603,10 +1603,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1">
         <v>47.265406433777571</v>
@@ -1632,10 +1632,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1">
         <v>54.027370468247028</v>
@@ -1661,10 +1661,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>52.719505287755197</v>
@@ -1690,10 +1690,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1">
         <v>51.56831280412144</v>
@@ -1719,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
         <v>54.433383327908885</v>
@@ -1748,10 +1748,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1">
         <v>61.268751298695534</v>
@@ -1777,10 +1777,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
         <v>58.44493053393748</v>
@@ -1806,10 +1806,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
         <v>59.116419344625456</v>
@@ -1835,10 +1835,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <v>53.513020328431729</v>
@@ -1864,10 +1864,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
         <v>62.224705856577856</v>
@@ -1893,10 +1893,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
         <v>53.395893819722588</v>
@@ -1931,7 +1931,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2206,10 +2206,13 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -8291,7 +8294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ADB12A-45DA-7845-83F6-9BF240A527AB}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
